--- a/data/duty.xlsx
+++ b/data/duty.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="806">
   <si>
     <r>
       <rPr>
@@ -9303,137 +9303,173 @@
   <si>
     <r>
       <rPr>
+        <sz val="5"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>门诊综合管理办公室</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">许倩茹（在岗）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18825264470</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">陈雨婷（在岗）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13592762936</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">许倩茹（ 电话）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18825264470</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">胡兰（电话）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13651411580</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">胡兰（ 电话）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13651411580</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">郑咏琪（在岗）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13651453738</t>
+    </r>
+  </si>
+  <si>
+    <t>病人关系科</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <b/>
         <sz val="5"/>
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>门诊综合管理办公室</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>门诊综合管理办公室</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">许倩茹（在岗）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18825264470</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">陈雨婷（在岗）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13592762936</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">许倩茹（ 电话）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18825264470</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">胡兰（电话）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13651411580</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">胡兰（ 电话）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13651411580</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">郑咏琪（在岗）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13651453738</t>
-    </r>
+      <t>值班电话：   13632998580</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汤嘉仪</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>汤嘉仪 、雷翠英</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雷翠英</t>
+    </r>
+  </si>
+  <si>
+    <t>资讯科技部</t>
   </si>
   <si>
     <r>
@@ -9443,7 +9479,121 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>值班电话：   13632998580</t>
+      <t>24小时IT值班电话 ：硬件 3594/13632998586 软件8712/ 13632998516（在岗）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">刘南（在岗）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13624061477</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李泽伟（在岗）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13590449798</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">倪欣（在岗）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13006688168</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">邹怀峰（在岗）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18318039322</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">郑庆裕（在岗）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18902856175</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">赵殷帆（在岗）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13688815515</t>
     </r>
   </si>
   <si>
@@ -9453,38 +9603,106 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>病人关系科</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>汤嘉仪</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>汤嘉仪 、雷翠英</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>雷翠英</t>
-    </r>
+      <t>病案管理科</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">刘燕（ 电话）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18681529765</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">刘燕（电话）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18681529765</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">黄凯琳（ 电话）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13423911083</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">黄凯琳（电话）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13423911083</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">陈丽丽（电话）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13528428147</t>
+    </r>
+  </si>
+  <si>
+    <t>护理部</t>
   </si>
   <si>
     <r>
@@ -9494,247 +9712,101 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>24小时IT值班电话 ：硬件 3594/13632998586 软件8712/ 13632998516（在岗）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>资讯科技部</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">刘南（在岗）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13624061477</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">李泽伟（在岗）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13590449798</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">倪欣（在岗）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13006688168</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">邹怀峰（在岗）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18318039322</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">郑庆裕（在岗）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18902856175</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">赵殷帆（在岗）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13688815515</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>病案管理科</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">刘燕（ 电话）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18681529765</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">刘燕（电话）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18681529765</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">黄凯琳（ 电话）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13423911083</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">黄凯琳（电话）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13423911083</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">陈丽丽（电话）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13528428147</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>护理部</t>
-    </r>
+      <t>护理部总值班电话 ：13632998595</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>涂羚</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>聂向荣</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卢艳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>霍然</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>杜艳红</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黎佩珊</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>周黎</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧阳斐</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="4"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>魏莹莹</t>
+    </r>
+  </si>
+  <si>
+    <t>行政保障部</t>
   </si>
   <si>
     <r>
@@ -9744,118 +9816,7 @@
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>护理部总值班电话 ：13632998595</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>涂羚</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>聂向荣</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>卢艳</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>霍然</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>杜艳红</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>黎佩珊</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>周黎</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>欧阳斐</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="4"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>魏莹莹</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="5"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>行政后勤 、设备科 、工程部总值班电话 ：18307556843</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="5"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>行政保障部</t>
     </r>
   </si>
   <si>
@@ -11977,7 +11938,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="\ \ \ \ \ @"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -12040,6 +12001,17 @@
     <font>
       <sz val="5"/>
       <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="5"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -12201,11 +12173,6 @@
     </font>
     <font>
       <sz val="3"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="5"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -12614,28 +12581,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12644,122 +12602,131 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12847,6 +12814,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -12856,22 +12829,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13196,10 +13172,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="A175" sqref="A175:D175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18522,422 +18498,409 @@
       </c>
     </row>
     <row r="167" spans="1:13">
-      <c r="A167" s="29"/>
-      <c r="B167" s="29"/>
-      <c r="C167" s="29" t="s">
+      <c r="A167" s="29" t="s">
+        <v>739</v>
+      </c>
+      <c r="B167" s="23"/>
+      <c r="C167" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D167" s="29" t="s">
+      <c r="D167" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E167" s="30" t="s">
-        <v>739</v>
-      </c>
-      <c r="F167" s="31"/>
-      <c r="G167" s="31"/>
-      <c r="H167" s="31"/>
-      <c r="I167" s="31"/>
-      <c r="J167" s="31"/>
-      <c r="K167" s="31"/>
-      <c r="L167" s="31"/>
-      <c r="M167" s="31"/>
+      <c r="E167" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="F167" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="G167" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="I167" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="J167" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="K167" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="L167" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="M167" s="7" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row r="168" spans="1:13">
-      <c r="A168" s="32" t="s">
-        <v>740</v>
-      </c>
-      <c r="B168" s="23"/>
-      <c r="C168" s="23" t="s">
+      <c r="A168" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="B168" s="31"/>
+      <c r="C168" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D168" s="23" t="s">
+      <c r="D168" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E168" s="7" t="s">
-        <v>741</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>743</v>
-      </c>
-      <c r="H168" s="7" t="s">
-        <v>744</v>
-      </c>
-      <c r="I168" s="7" t="s">
-        <v>745</v>
-      </c>
-      <c r="J168" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="K168" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="L168" s="7" t="s">
-        <v>742</v>
-      </c>
-      <c r="M168" s="7" t="s">
-        <v>746</v>
-      </c>
+      <c r="E168" s="32" t="s">
+        <v>747</v>
+      </c>
+      <c r="F168" s="33"/>
+      <c r="G168" s="33"/>
+      <c r="H168" s="33"/>
+      <c r="I168" s="33"/>
+      <c r="J168" s="33"/>
+      <c r="K168" s="33"/>
+      <c r="L168" s="33"/>
+      <c r="M168" s="33"/>
     </row>
     <row r="169" spans="1:13">
-      <c r="A169" s="29"/>
-      <c r="B169" s="29"/>
-      <c r="C169" s="29" t="s">
+      <c r="A169" s="34" t="s">
+        <v>746</v>
+      </c>
+      <c r="B169" s="23"/>
+      <c r="C169" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D169" s="29" t="s">
+      <c r="D169" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E169" s="30" t="s">
-        <v>747</v>
-      </c>
-      <c r="F169" s="31"/>
-      <c r="G169" s="31"/>
-      <c r="H169" s="31"/>
-      <c r="I169" s="31"/>
-      <c r="J169" s="31"/>
-      <c r="K169" s="31"/>
-      <c r="L169" s="31"/>
-      <c r="M169" s="31"/>
+      <c r="E169" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="F169" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="G169" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="H169" s="35" t="s">
+        <v>748</v>
+      </c>
+      <c r="I169" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="J169" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="K169" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="L169" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="M169" s="7" t="s">
+        <v>750</v>
+      </c>
     </row>
     <row r="170" spans="1:13">
-      <c r="A170" s="32" t="s">
-        <v>748</v>
-      </c>
-      <c r="B170" s="23"/>
-      <c r="C170" s="23" t="s">
+      <c r="A170" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="B170" s="31"/>
+      <c r="C170" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D170" s="23" t="s">
+      <c r="D170" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E170" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="G170" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="H170" s="33" t="s">
-        <v>749</v>
-      </c>
-      <c r="I170" s="7" t="s">
-        <v>750</v>
-      </c>
-      <c r="J170" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="K170" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="L170" s="7" t="s">
-        <v>751</v>
-      </c>
-      <c r="M170" s="7" t="s">
-        <v>751</v>
-      </c>
+      <c r="E170" s="32" t="s">
+        <v>752</v>
+      </c>
+      <c r="F170" s="33"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="33"/>
+      <c r="I170" s="33"/>
+      <c r="J170" s="33"/>
+      <c r="K170" s="33"/>
+      <c r="L170" s="33"/>
+      <c r="M170" s="33"/>
     </row>
     <row r="171" spans="1:13">
-      <c r="A171" s="29"/>
-      <c r="B171" s="29"/>
-      <c r="C171" s="29" t="s">
+      <c r="A171" s="34" t="s">
+        <v>751</v>
+      </c>
+      <c r="B171" s="23"/>
+      <c r="C171" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D171" s="29" t="s">
+      <c r="D171" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E171" s="30" t="s">
-        <v>752</v>
-      </c>
-      <c r="F171" s="31"/>
-      <c r="G171" s="31"/>
-      <c r="H171" s="31"/>
-      <c r="I171" s="31"/>
-      <c r="J171" s="31"/>
-      <c r="K171" s="31"/>
-      <c r="L171" s="31"/>
-      <c r="M171" s="31"/>
+      <c r="E171" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="F171" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="G171" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="H171" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="I171" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="J171" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="K171" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="L171" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="M171" s="7" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="172" spans="1:13">
-      <c r="A172" s="32" t="s">
-        <v>753</v>
-      </c>
-      <c r="B172" s="23"/>
-      <c r="C172" s="23" t="s">
+      <c r="A172" s="28" t="s">
+        <v>759</v>
+      </c>
+      <c r="B172" s="8"/>
+      <c r="C172" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D172" s="23" t="s">
+      <c r="D172" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="F172" s="7" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="I172" s="7" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="J172" s="7" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="K172" s="7" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="L172" s="7" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="M172" s="7" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="173" spans="1:13">
-      <c r="A173" s="28" t="s">
-        <v>760</v>
-      </c>
-      <c r="B173" s="8"/>
-      <c r="C173" s="8" t="s">
+      <c r="A173" s="36" t="s">
+        <v>765</v>
+      </c>
+      <c r="B173" s="37"/>
+      <c r="C173" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D173" s="8" t="s">
+      <c r="D173" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E173" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>762</v>
-      </c>
-      <c r="H173" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="I173" s="7" t="s">
-        <v>764</v>
-      </c>
-      <c r="J173" s="7" t="s">
-        <v>763</v>
-      </c>
-      <c r="K173" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="L173" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="M173" s="7" t="s">
-        <v>765</v>
-      </c>
+      <c r="E173" s="32" t="s">
+        <v>766</v>
+      </c>
+      <c r="F173" s="33"/>
+      <c r="G173" s="33"/>
+      <c r="H173" s="33"/>
+      <c r="I173" s="33"/>
+      <c r="J173" s="33"/>
+      <c r="K173" s="33"/>
+      <c r="L173" s="33"/>
+      <c r="M173" s="33"/>
     </row>
     <row r="174" spans="1:13">
-      <c r="A174" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="B174" s="35"/>
-      <c r="C174" s="35" t="s">
+      <c r="A174" s="38" t="s">
+        <v>765</v>
+      </c>
+      <c r="B174" s="39"/>
+      <c r="C174" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D174" s="35" t="s">
+      <c r="D174" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="E174" s="30" t="s">
+      <c r="E174" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="F174" s="31"/>
-      <c r="G174" s="31"/>
-      <c r="H174" s="31"/>
-      <c r="I174" s="31"/>
-      <c r="J174" s="31"/>
-      <c r="K174" s="31"/>
-      <c r="L174" s="31"/>
-      <c r="M174" s="31"/>
+      <c r="F174" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="I174" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="J174" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="K174" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="L174" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="M174" s="7" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="175" spans="1:13">
-      <c r="A175" s="36"/>
-      <c r="B175" s="36"/>
-      <c r="C175" s="36" t="s">
+      <c r="A175" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="B175" s="31"/>
+      <c r="C175" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D175" s="36" t="s">
+      <c r="D175" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E175" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="G175" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="H175" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="I175" s="7" t="s">
-        <v>772</v>
-      </c>
-      <c r="J175" s="7" t="s">
-        <v>773</v>
-      </c>
-      <c r="K175" s="7" t="s">
-        <v>774</v>
-      </c>
-      <c r="L175" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="M175" s="7" t="s">
+      <c r="E175" s="32" t="s">
+        <v>777</v>
+      </c>
+      <c r="F175" s="33"/>
+      <c r="G175" s="33"/>
+      <c r="H175" s="33"/>
+      <c r="I175" s="33"/>
+      <c r="J175" s="33"/>
+      <c r="K175" s="33"/>
+      <c r="L175" s="33"/>
+      <c r="M175" s="33"/>
+    </row>
+    <row r="176" ht="26" spans="1:13">
+      <c r="A176" s="40" t="s">
         <v>776</v>
       </c>
+      <c r="B176" s="41"/>
+      <c r="C176" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D176" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="I176" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="J176" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="K176" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="L176" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="M176" s="7" t="s">
+        <v>786</v>
+      </c>
     </row>
-    <row r="176" spans="1:13">
-      <c r="A176" s="29"/>
-      <c r="B176" s="29"/>
-      <c r="C176" s="29" t="s">
+    <row r="177" spans="1:13">
+      <c r="A177" s="41"/>
+      <c r="B177" s="41"/>
+      <c r="C177" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D176" s="29" t="s">
+      <c r="D177" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E176" s="30" t="s">
-        <v>777</v>
-      </c>
-      <c r="F176" s="31"/>
-      <c r="G176" s="31"/>
-      <c r="H176" s="31"/>
-      <c r="I176" s="31"/>
-      <c r="J176" s="31"/>
-      <c r="K176" s="31"/>
-      <c r="L176" s="31"/>
-      <c r="M176" s="31"/>
+      <c r="E177" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="J177" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="K177" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="L177" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="M177" s="7" t="s">
+        <v>795</v>
+      </c>
     </row>
-    <row r="177" ht="26" spans="1:13">
-      <c r="A177" s="37" t="s">
-        <v>778</v>
-      </c>
-      <c r="B177" s="38"/>
-      <c r="C177" s="38" t="s">
+    <row r="178" ht="156" spans="1:13">
+      <c r="A178" s="28" t="s">
+        <v>796</v>
+      </c>
+      <c r="B178" s="8"/>
+      <c r="C178" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D177" s="38" t="s">
+      <c r="D178" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E177" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>780</v>
-      </c>
-      <c r="G177" s="7" t="s">
-        <v>781</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>782</v>
-      </c>
-      <c r="I177" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="J177" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="K177" s="7" t="s">
-        <v>785</v>
-      </c>
-      <c r="L177" s="7" t="s">
-        <v>786</v>
-      </c>
-      <c r="M177" s="7" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="178" spans="1:13">
-      <c r="A178" s="38"/>
-      <c r="B178" s="38"/>
-      <c r="C178" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D178" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="F178" s="7" t="s">
-        <v>789</v>
-      </c>
-      <c r="G178" s="7" t="s">
-        <v>790</v>
-      </c>
-      <c r="H178" s="7" t="s">
-        <v>791</v>
-      </c>
-      <c r="I178" s="7" t="s">
-        <v>792</v>
-      </c>
-      <c r="J178" s="7" t="s">
-        <v>793</v>
-      </c>
-      <c r="K178" s="7" t="s">
-        <v>794</v>
-      </c>
-      <c r="L178" s="7" t="s">
-        <v>795</v>
-      </c>
-      <c r="M178" s="7" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="179" ht="156" spans="1:13">
-      <c r="A179" s="28" t="s">
+      <c r="E178" s="10" t="s">
         <v>797</v>
       </c>
-      <c r="B179" s="8"/>
-      <c r="C179" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D179" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E179" s="10" t="s">
+      <c r="F178" s="10" t="s">
         <v>798</v>
       </c>
-      <c r="F179" s="10" t="s">
+      <c r="G178" s="10" t="s">
         <v>799</v>
       </c>
-      <c r="G179" s="10" t="s">
+      <c r="H178" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="H179" s="10" t="s">
+      <c r="I178" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="I179" s="10" t="s">
+      <c r="J178" s="10" t="s">
         <v>802</v>
       </c>
-      <c r="J179" s="10" t="s">
+      <c r="K178" s="10" t="s">
         <v>803</v>
       </c>
-      <c r="K179" s="10" t="s">
+      <c r="L178" s="10" t="s">
         <v>804</v>
       </c>
-      <c r="L179" s="10" t="s">
+      <c r="M178" s="10" t="s">
         <v>805</v>
-      </c>
-      <c r="M179" s="10" t="s">
-        <v>806</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="265">
+  <mergeCells count="263">
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
@@ -19136,21 +19099,19 @@
     <mergeCell ref="A165:D165"/>
     <mergeCell ref="A166:D166"/>
     <mergeCell ref="A167:D167"/>
-    <mergeCell ref="E167:M167"/>
     <mergeCell ref="A168:D168"/>
+    <mergeCell ref="E168:M168"/>
     <mergeCell ref="A169:D169"/>
-    <mergeCell ref="E169:M169"/>
     <mergeCell ref="A170:D170"/>
+    <mergeCell ref="E170:M170"/>
     <mergeCell ref="A171:D171"/>
-    <mergeCell ref="E171:M171"/>
     <mergeCell ref="A172:D172"/>
     <mergeCell ref="A173:D173"/>
+    <mergeCell ref="E173:M173"/>
     <mergeCell ref="A174:D174"/>
-    <mergeCell ref="E174:M174"/>
     <mergeCell ref="A175:D175"/>
-    <mergeCell ref="A176:D176"/>
-    <mergeCell ref="E176:M176"/>
-    <mergeCell ref="A179:D179"/>
+    <mergeCell ref="E175:M175"/>
+    <mergeCell ref="A178:D178"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="A18:A21"/>
@@ -19202,7 +19163,7 @@
     <mergeCell ref="L155:L156"/>
     <mergeCell ref="M155:M156"/>
     <mergeCell ref="A2:D3"/>
-    <mergeCell ref="A177:D178"/>
+    <mergeCell ref="A176:D177"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/data/duty.xlsx
+++ b/data/duty.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="801">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="802">
   <si>
     <r>
       <rPr>
@@ -771,6 +771,9 @@
     </r>
   </si>
   <si>
+    <t>门诊综合管理办公室</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -783,11 +786,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="6.5"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">
 </t>
     </r>
@@ -894,6 +892,9 @@
       </rPr>
       <t>13651453738</t>
     </r>
+  </si>
+  <si>
+    <t>病人关系科</t>
   </si>
   <si>
     <r>
@@ -918,16 +919,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="17"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>病人关系科</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="16"/>
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
@@ -954,6 +945,9 @@
       </rPr>
       <t>雷翠英</t>
     </r>
+  </si>
+  <si>
+    <t>资讯科技部</t>
   </si>
   <si>
     <r>
@@ -1032,132 +1026,122 @@
   <si>
     <r>
       <rPr>
+        <sz val="16"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">刘南（在岗）  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13624061477</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">李泽伟（在岗）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13590449798</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">倪欣（在岗）  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13006688168</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">邹怀峰（在岗）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18318039322</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">郑庆裕（在岗）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>18902856175</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">赵殷帆（在岗）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>13688815515</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <sz val="17"/>
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>资讯科技部</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">刘南（在岗）  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13624061477</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">李泽伟（在岗）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13590449798</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">倪欣（在岗）  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13006688168</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">邹怀峰（在岗）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18318039322</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">郑庆裕（在岗）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>18902856175</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">赵殷帆（在岗）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>13688815515</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="17"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
       <t>病案管理科</t>
     </r>
   </si>
@@ -1219,14 +1203,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="17"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>护理部</t>
-    </r>
+    <t>护理部</t>
   </si>
   <si>
     <r>
@@ -1339,6 +1316,9 @@
     </r>
   </si>
   <si>
+    <t>行政保障部</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1361,16 +1341,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="17"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>行政保障部</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="16"/>
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
@@ -15482,14 +15452,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Microsoft YaHei"/>
-        <charset val="134"/>
-      </rPr>
-      <t>体检中心</t>
-    </r>
+    <t>体检中心</t>
   </si>
   <si>
     <r>
@@ -16625,7 +16588,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -16659,10 +16622,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="6.5"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="17"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="17"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -16689,6 +16668,11 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -16860,34 +16844,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="17"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="17"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <name val="Times New Roman"/>
@@ -16901,17 +16857,6 @@
     </font>
     <font>
       <b/>
-      <sz val="17"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="6.5"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="47"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
@@ -16919,6 +16864,30 @@
     <font>
       <b/>
       <sz val="47"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -17309,152 +17278,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -17479,6 +17448,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -17488,31 +17460,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -17521,37 +17496,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -17560,7 +17535,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -17928,8 +17906,8 @@
   <sheetPr/>
   <dimension ref="A1:M180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174:D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -18209,5082 +18187,5092 @@
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" ht="69.75" customHeight="1" spans="1:13">
-      <c r="A10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" ht="27" customHeight="1" spans="1:13">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="A11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" ht="44" customHeight="1" spans="1:13">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="15" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="F12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>55</v>
+      <c r="J12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" ht="44" customHeight="1" spans="1:13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="A13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
     </row>
     <row r="14" ht="56" customHeight="1" spans="1:13">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M14" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" ht="49.5" customHeight="1" spans="1:13">
       <c r="A15" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" ht="27" customHeight="1" spans="1:13">
-      <c r="A16" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="13" t="s">
+      <c r="A16" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
     </row>
     <row r="17" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="15" t="s">
+      <c r="A17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="F17" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="G17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="H17" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="I17" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="K17" s="15" t="s">
+      <c r="J17" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="L17" s="15" t="s">
+      <c r="K17" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="L17" s="16" t="s">
         <v>78</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18" ht="27" customHeight="1" spans="1:13">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="A18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
     </row>
     <row r="19" ht="100" customHeight="1" spans="1:13">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21" t="s">
-        <v>81</v>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23" t="s">
+        <v>82</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" ht="54" customHeight="1" spans="1:13">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" ht="297" customHeight="1" spans="1:13">
       <c r="A21" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="21" t="s">
+      <c r="E21" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="F21" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="G21" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="H21" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="I21" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="J21" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="K21" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="M21" s="21" t="s">
+      <c r="L21" s="23" t="s">
         <v>108</v>
+      </c>
+      <c r="M21" s="23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="22" ht="297" customHeight="1" spans="1:13">
       <c r="A22" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="H22" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="J22" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="L22" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="M22" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="J22" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="M22" s="23" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A23" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="24" t="s">
         <v>111</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="15" t="s">
+      <c r="E23" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="F23" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="G23" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="I23" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="J23" s="15" t="s">
+      <c r="H23" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="K23" s="15" t="s">
+      <c r="I23" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="J23" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="L23" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="M23" s="15" t="s">
-        <v>117</v>
+      <c r="K23" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="24" ht="24.75" customHeight="1" spans="1:13">
       <c r="A24" s="2"/>
-      <c r="B24" s="15" t="s">
-        <v>118</v>
+      <c r="B24" s="16" t="s">
+        <v>119</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="F24" s="15" t="s">
+      <c r="E24" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="F24" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="G24" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="H24" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="I24" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="J24" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="15" t="s">
+      <c r="K24" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="M24" s="15" t="s">
-        <v>116</v>
+      <c r="L24" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1" spans="1:13">
       <c r="A25" s="2"/>
-      <c r="B25" s="15" t="s">
-        <v>127</v>
+      <c r="B25" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="F25" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="G25" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="H25" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="I25" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="K25" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="L25" s="15" t="s">
+      <c r="J25" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="M25" s="15" t="s">
-        <v>129</v>
+      <c r="K25" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1" spans="1:13">
       <c r="A26" s="2"/>
-      <c r="B26" s="15" t="s">
-        <v>127</v>
+      <c r="B26" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" s="15" t="s">
+      <c r="E26" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="F26" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="G26" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="I26" s="15" t="s">
+      <c r="H26" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M26" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="K26" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" ht="24.75" customHeight="1" spans="1:13">
       <c r="A27" s="2"/>
-      <c r="B27" s="15" t="s">
-        <v>142</v>
+      <c r="B27" s="16" t="s">
+        <v>143</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="F27" s="15" t="s">
+      <c r="E27" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="F27" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="G27" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="H27" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="I27" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="K27" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L27" s="15" t="s">
+      <c r="J27" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="M27" s="15" t="s">
+      <c r="K27" s="16" t="s">
         <v>144</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1" spans="1:13">
       <c r="A28" s="2"/>
-      <c r="B28" s="15" t="s">
-        <v>150</v>
+      <c r="B28" s="16" t="s">
+        <v>151</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="G28" s="15" t="s">
+      <c r="E28" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="F28" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="H28" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L28" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="J28" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="K28" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="L28" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="M28" s="15" t="s">
-        <v>155</v>
+      <c r="M28" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1" spans="1:13">
       <c r="A29" s="2"/>
-      <c r="B29" s="15" t="s">
-        <v>156</v>
+      <c r="B29" s="16" t="s">
+        <v>157</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="F29" s="15" t="s">
+      <c r="E29" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="F29" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="G29" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="H29" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="I29" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="K29" s="15" t="s">
+      <c r="J29" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="K29" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="M29" s="15" t="s">
+      <c r="L29" s="16" t="s">
         <v>165</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="30" ht="58" customHeight="1" spans="1:13">
       <c r="A30" s="2"/>
-      <c r="B30" s="15" t="s">
-        <v>166</v>
+      <c r="B30" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
+      <c r="E30" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="25"/>
     </row>
     <row r="31" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A31" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B31" s="15" t="s">
+      <c r="A31" s="24" t="s">
         <v>169</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>170</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="F31" s="15" t="s">
+      <c r="E31" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="F31" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="H31" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="I31" s="15" t="s">
+      <c r="G31" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="J31" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="K31" s="15" t="s">
+      <c r="H31" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="L31" s="15" t="s">
+      <c r="J31" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K31" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="M31" s="15" t="s">
-        <v>173</v>
+      <c r="L31" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="32" ht="24.75" customHeight="1" spans="1:13">
       <c r="A32" s="2"/>
-      <c r="B32" s="15" t="s">
-        <v>176</v>
+      <c r="B32" s="16" t="s">
+        <v>177</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="F32" s="15" t="s">
+      <c r="E32" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="F32" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="G32" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="I32" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="J32" s="15" t="s">
+      <c r="H32" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="K32" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="L32" s="15" t="s">
+      <c r="I32" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="M32" s="15" t="s">
-        <v>177</v>
+      <c r="K32" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1" spans="1:13">
       <c r="A33" s="2"/>
-      <c r="B33" s="15" t="s">
-        <v>183</v>
+      <c r="B33" s="16" t="s">
+        <v>184</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I33" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="I33" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="J33" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="K33" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="M33" s="15" t="s">
+      <c r="L33" s="16" t="s">
         <v>189</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="34" ht="24.75" customHeight="1" spans="1:13">
       <c r="A34" s="2"/>
-      <c r="B34" s="15" t="s">
-        <v>190</v>
+      <c r="B34" s="16" t="s">
+        <v>191</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="F34" s="15" t="s">
+      <c r="E34" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="F34" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="G34" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="I34" s="15" t="s">
+      <c r="H34" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="I34" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="K34" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="L34" s="15" t="s">
+      <c r="J34" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="M34" s="15" t="s">
+      <c r="L34" s="16" t="s">
         <v>193</v>
+      </c>
+      <c r="M34" s="16" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1" spans="1:13">
       <c r="A35" s="2"/>
-      <c r="B35" s="15" t="s">
-        <v>197</v>
+      <c r="B35" s="16" t="s">
+        <v>198</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="K35" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="L35" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="M35" s="15" t="s">
-        <v>198</v>
+      <c r="E35" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="M35" s="16" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="36" ht="77" customHeight="1" spans="1:13">
       <c r="A36" s="2"/>
-      <c r="B36" s="15" t="s">
-        <v>166</v>
+      <c r="B36" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
+      <c r="E36" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="25"/>
+      <c r="L36" s="25"/>
+      <c r="M36" s="25"/>
     </row>
     <row r="37" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A37" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="24" t="s">
         <v>201</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="F37" s="25" t="s">
+      <c r="E37" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="F37" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="H37" s="25" t="s">
+      <c r="G37" s="27" t="s">
         <v>205</v>
       </c>
-      <c r="I37" s="25" t="s">
+      <c r="H37" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="J37" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="K37" s="25" t="s">
+      <c r="I37" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J37" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="L37" s="25" t="s">
+      <c r="K37" s="27" t="s">
         <v>204</v>
       </c>
-      <c r="M37" s="25" t="s">
+      <c r="L37" s="27" t="s">
         <v>205</v>
+      </c>
+      <c r="M37" s="27" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1" spans="1:13">
       <c r="A38" s="2"/>
-      <c r="B38" s="15" t="s">
-        <v>207</v>
+      <c r="B38" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="F38" s="25" t="s">
+      <c r="E38" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="F38" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="H38" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="I38" s="25" t="s">
+      <c r="G38" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="H38" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="J38" s="25" t="s">
+      <c r="I38" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="K38" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="L38" s="25" t="s">
+      <c r="J38" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="K38" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="M38" s="25" t="s">
+      <c r="L38" s="27" t="s">
         <v>210</v>
+      </c>
+      <c r="M38" s="27" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1" spans="1:13">
       <c r="A39" s="2"/>
-      <c r="B39" s="15" t="s">
-        <v>211</v>
+      <c r="B39" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="25" t="s">
+      <c r="E39" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="F39" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="F39" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="H39" s="25" t="s">
+      <c r="G39" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="H39" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="I39" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="I39" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="J39" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="K39" s="25" t="s">
+      <c r="J39" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K39" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="L39" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="L39" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="M39" s="25" t="s">
-        <v>212</v>
+      <c r="M39" s="27" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="40" ht="88" customHeight="1" spans="1:13">
       <c r="A40" s="2"/>
-      <c r="B40" s="15" t="s">
-        <v>166</v>
+      <c r="B40" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="24" t="s">
-        <v>213</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
+      <c r="E40" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
     </row>
     <row r="41" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A41" s="22" t="s">
-        <v>214</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>201</v>
+      <c r="A41" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="F41" s="15" t="s">
+      <c r="E41" s="16" t="s">
         <v>216</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="F41" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="G41" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="H41" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="J41" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="K41" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="L41" s="15" t="s">
+      <c r="I41" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="J41" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="K41" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="M41" s="15" t="s">
-        <v>220</v>
+      <c r="L41" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="M41" s="16" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="42" ht="24.75" customHeight="1" spans="1:13">
       <c r="A42" s="2"/>
-      <c r="B42" s="15" t="s">
-        <v>207</v>
+      <c r="B42" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="16" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="G42" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="F42" s="15" t="s">
-        <v>222</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="I42" s="15" t="s">
+      <c r="H42" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="J42" s="15" t="s">
+      <c r="I42" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="K42" s="15" t="s">
+      <c r="J42" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="L42" s="15" t="s">
+      <c r="K42" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="M42" s="15" t="s">
-        <v>223</v>
+      <c r="L42" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="M42" s="16" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1" spans="1:13">
       <c r="A43" s="2"/>
-      <c r="B43" s="15" t="s">
-        <v>211</v>
+      <c r="B43" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="K43" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="L43" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="M43" s="15" t="s">
-        <v>228</v>
+      <c r="E43" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="G43" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="M43" s="16" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="44" ht="89" customHeight="1" spans="1:13">
       <c r="A44" s="2"/>
-      <c r="B44" s="15" t="s">
-        <v>166</v>
+      <c r="B44" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
+      <c r="E44" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="25"/>
     </row>
     <row r="45" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A45" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>201</v>
+      <c r="A45" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="F45" s="15" t="s">
+      <c r="E45" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="G45" s="15" t="s">
+      <c r="F45" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="G45" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="I45" s="15" t="s">
+      <c r="H45" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="J45" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="K45" s="15" t="s">
+      <c r="I45" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="L45" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="M45" s="15" t="s">
+      <c r="J45" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="K45" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="L45" s="16" t="s">
         <v>234</v>
+      </c>
+      <c r="M45" s="16" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1" spans="1:13">
       <c r="A46" s="2"/>
-      <c r="B46" s="15" t="s">
-        <v>207</v>
+      <c r="B46" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="F46" s="15" t="s">
+      <c r="E46" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="G46" s="15" t="s">
+      <c r="F46" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="H46" s="15" t="s">
+      <c r="G46" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="I46" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="K46" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="I46" s="15" t="s">
+      <c r="L46" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="J46" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="K46" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="L46" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="M46" s="15" t="s">
-        <v>241</v>
+      <c r="M46" s="16" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="47" ht="24.75" customHeight="1" spans="1:13">
       <c r="A47" s="2"/>
-      <c r="B47" s="15" t="s">
-        <v>211</v>
+      <c r="B47" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="F47" s="15" t="s">
+      <c r="E47" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="G47" s="15" t="s">
+      <c r="F47" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="H47" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="I47" s="15" t="s">
+      <c r="G47" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="H47" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="J47" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="L47" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="M47" s="15" t="s">
+      <c r="I47" s="16" t="s">
         <v>245</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="K47" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="M47" s="16" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="48" ht="90" customHeight="1" spans="1:13">
       <c r="A48" s="2"/>
-      <c r="B48" s="15" t="s">
-        <v>166</v>
+      <c r="B48" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
+      <c r="E48" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
     </row>
     <row r="49" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A49" s="22" t="s">
-        <v>247</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>201</v>
+      <c r="A49" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="F49" s="15" t="s">
+      <c r="E49" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="F49" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="H49" s="15" t="s">
+      <c r="G49" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="I49" s="15" t="s">
+      <c r="H49" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="J49" s="15" t="s">
+      <c r="I49" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="K49" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="L49" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="M49" s="26" t="s">
+      <c r="J49" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="L49" s="16" t="s">
         <v>253</v>
+      </c>
+      <c r="M49" s="28" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1" spans="1:13">
       <c r="A50" s="2"/>
-      <c r="B50" s="15" t="s">
-        <v>207</v>
+      <c r="B50" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="G50" s="15" t="s">
+      <c r="E50" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="H50" s="15" t="s">
+      <c r="G50" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="I50" s="15" t="s">
+      <c r="H50" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="J50" s="15" t="s">
+      <c r="I50" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="K50" s="15" t="s">
+      <c r="J50" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="L50" s="15" t="s">
+      <c r="K50" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="M50" s="15" t="s">
+      <c r="L50" s="16" t="s">
         <v>261</v>
+      </c>
+      <c r="M50" s="16" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1" spans="1:13">
       <c r="A51" s="2"/>
-      <c r="B51" s="15" t="s">
-        <v>211</v>
+      <c r="B51" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="15" t="s">
+      <c r="E51" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="I51" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="K51" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="L51" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="F51" s="15" t="s">
+      <c r="M51" s="16" t="s">
         <v>262</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="J51" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="K51" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="L51" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="M51" s="15" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="52" ht="59" customHeight="1" spans="1:13">
       <c r="A52" s="2"/>
-      <c r="B52" s="15" t="s">
-        <v>166</v>
+      <c r="B52" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
+      <c r="E52" s="26" t="s">
+        <v>266</v>
+      </c>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
     </row>
     <row r="53" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A53" s="22" t="s">
-        <v>266</v>
-      </c>
-      <c r="B53" s="15" t="s">
+      <c r="A53" s="24" t="s">
         <v>267</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>268</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="F53" s="15" t="s">
+      <c r="E53" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="G53" s="15" t="s">
+      <c r="F53" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="G53" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="I53" s="15" t="s">
+      <c r="H53" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="J53" s="15" t="s">
+      <c r="I53" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="K53" s="15" t="s">
+      <c r="J53" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="L53" s="15" t="s">
+      <c r="K53" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="M53" s="15" t="s">
-        <v>268</v>
+      <c r="L53" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="M53" s="16" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1" spans="1:13">
       <c r="A54" s="2"/>
-      <c r="B54" s="15" t="s">
-        <v>276</v>
+      <c r="B54" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="G54" s="15" t="s">
+      <c r="E54" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="H54" s="15" t="s">
+      <c r="F54" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="I54" s="15" t="s">
+      <c r="G54" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="J54" s="15" t="s">
+      <c r="H54" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="I54" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="K54" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="L54" s="15" t="s">
+      <c r="J54" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="M54" s="15" t="s">
+      <c r="K54" s="16" t="s">
         <v>281</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="M54" s="16" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1" spans="1:13">
       <c r="A55" s="2"/>
-      <c r="B55" s="15" t="s">
-        <v>282</v>
+      <c r="B55" s="16" t="s">
+        <v>283</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="F55" s="15" t="s">
+      <c r="E55" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="F55" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="H55" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="I55" s="15" t="s">
+      <c r="G55" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="H55" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="J55" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="K55" s="15" t="s">
+      <c r="I55" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="J55" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="L55" s="15" t="s">
+      <c r="K55" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="M55" s="15" t="s">
-        <v>286</v>
+      <c r="L55" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="M55" s="16" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1" spans="1:13">
       <c r="A56" s="2"/>
-      <c r="B56" s="15" t="s">
-        <v>289</v>
+      <c r="B56" s="16" t="s">
+        <v>290</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="L56" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="M56" s="15" t="s">
-        <v>290</v>
+      <c r="E56" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="K56" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="M56" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="57" ht="24.75" customHeight="1" spans="1:13">
       <c r="A57" s="2"/>
-      <c r="B57" s="15" t="s">
-        <v>291</v>
+      <c r="B57" s="16" t="s">
+        <v>292</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="I57" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="J57" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="L57" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="M57" s="15" t="s">
-        <v>292</v>
+      <c r="E57" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="M57" s="16" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="58" ht="54" customHeight="1" spans="1:13">
       <c r="A58" s="2"/>
-      <c r="B58" s="15" t="s">
-        <v>166</v>
+      <c r="B58" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="24" t="s">
-        <v>293</v>
-      </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
+      <c r="E58" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
     </row>
     <row r="59" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A59" s="22" t="s">
-        <v>294</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>201</v>
+      <c r="A59" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="F59" s="15" t="s">
+      <c r="E59" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="G59" s="15" t="s">
+      <c r="F59" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="H59" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="I59" s="15" t="s">
+      <c r="G59" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="J59" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="K59" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="L59" s="15" t="s">
+      <c r="H59" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="I59" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="M59" s="15" t="s">
-        <v>299</v>
+      <c r="J59" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="K59" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="M59" s="16" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1" spans="1:13">
       <c r="A60" s="2"/>
-      <c r="B60" s="15" t="s">
-        <v>207</v>
+      <c r="B60" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="15" t="s">
+      <c r="E60" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="G60" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="I60" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="K60" s="15" t="s">
+      <c r="H60" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="L60" s="15" t="s">
+      <c r="I60" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="K60" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="M60" s="15" t="s">
-        <v>302</v>
+      <c r="L60" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="M60" s="16" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1" spans="1:13">
       <c r="A61" s="2"/>
-      <c r="B61" s="15" t="s">
-        <v>303</v>
+      <c r="B61" s="16" t="s">
+        <v>304</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="I61" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="J61" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="K61" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="L61" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="M61" s="15" t="s">
-        <v>304</v>
+      <c r="E61" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="M61" s="16" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="62" ht="24.75" customHeight="1" spans="1:13">
       <c r="A62" s="2"/>
-      <c r="B62" s="15" t="s">
-        <v>305</v>
+      <c r="B62" s="16" t="s">
+        <v>306</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="I62" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="J62" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="K62" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="L62" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="M62" s="15" t="s">
-        <v>306</v>
+      <c r="E62" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="I62" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="K62" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="M62" s="16" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="63" ht="50" customHeight="1" spans="1:13">
       <c r="A63" s="2"/>
-      <c r="B63" s="15" t="s">
-        <v>166</v>
+      <c r="B63" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
+      <c r="E63" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
     </row>
     <row r="64" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A64" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>201</v>
+      <c r="A64" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="F64" s="24" t="s">
+      <c r="E64" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="G64" s="24" t="s">
+      <c r="F64" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="I64" s="26" t="s">
         <v>310</v>
       </c>
-      <c r="H64" s="24" t="s">
-        <v>311</v>
-      </c>
-      <c r="I64" s="24" t="s">
-        <v>309</v>
-      </c>
-      <c r="J64" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="K64" s="24" t="s">
+      <c r="J64" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="L64" s="24" t="s">
+      <c r="K64" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="M64" s="24" t="s">
+      <c r="L64" s="26" t="s">
         <v>315</v>
+      </c>
+      <c r="M64" s="26" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1" spans="1:13">
       <c r="A65" s="2"/>
-      <c r="B65" s="15" t="s">
-        <v>207</v>
+      <c r="B65" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="F65" s="24" t="s">
+      <c r="E65" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="G65" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="H65" s="24" t="s">
+      <c r="F65" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="I65" s="24" t="s">
+      <c r="G65" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="H65" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="J65" s="24" t="s">
+      <c r="I65" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="K65" s="24" t="s">
+      <c r="J65" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="L65" s="24" t="s">
+      <c r="K65" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="M65" s="24" t="s">
-        <v>151</v>
+      <c r="L65" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="M65" s="26" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1" spans="1:13">
       <c r="A66" s="2"/>
-      <c r="B66" s="15" t="s">
-        <v>323</v>
+      <c r="B66" s="16" t="s">
+        <v>324</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="F66" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="G66" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="H66" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="I66" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="J66" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="K66" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="L66" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="M66" s="24" t="s">
-        <v>320</v>
+      <c r="E66" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="I66" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="J66" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="K66" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="L66" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="M66" s="26" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="67" ht="24.75" customHeight="1" spans="1:13">
       <c r="A67" s="2"/>
-      <c r="B67" s="15" t="s">
-        <v>325</v>
+      <c r="B67" s="16" t="s">
+        <v>326</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="F67" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="G67" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="H67" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="I67" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="J67" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="K67" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="L67" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="M67" s="24" t="s">
-        <v>326</v>
+      <c r="E67" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="I67" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="J67" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="K67" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="L67" s="26" t="s">
+        <v>327</v>
+      </c>
+      <c r="M67" s="26" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="68" ht="57" customHeight="1" spans="1:13">
       <c r="A68" s="2"/>
-      <c r="B68" s="15" t="s">
-        <v>166</v>
+      <c r="B68" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="28"/>
-      <c r="M68" s="28"/>
+      <c r="E68" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="30"/>
     </row>
     <row r="69" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A69" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>201</v>
+      <c r="A69" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="F69" s="15" t="s">
+      <c r="E69" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="G69" s="15" t="s">
+      <c r="F69" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="H69" s="15" t="s">
+      <c r="G69" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="I69" s="15" t="s">
+      <c r="H69" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="J69" s="15" t="s">
+      <c r="I69" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="K69" s="15" t="s">
+      <c r="J69" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="L69" s="15" t="s">
+      <c r="K69" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="M69" s="15" t="s">
-        <v>328</v>
+      <c r="L69" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="M69" s="16" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1" spans="1:13">
       <c r="A70" s="2"/>
-      <c r="B70" s="15" t="s">
-        <v>207</v>
+      <c r="B70" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="F70" s="15" t="s">
+      <c r="E70" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="G70" s="15" t="s">
+      <c r="F70" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="H70" s="15" t="s">
+      <c r="G70" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="I70" s="15" t="s">
+      <c r="H70" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="J70" s="15" t="s">
+      <c r="I70" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="K70" s="15" t="s">
+      <c r="J70" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="L70" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="M70" s="15" t="s">
+      <c r="K70" s="16" t="s">
         <v>343</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="M70" s="16" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1" spans="1:13">
       <c r="A71" s="2"/>
-      <c r="B71" s="15" t="s">
-        <v>211</v>
+      <c r="B71" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="F71" s="15" t="s">
+      <c r="E71" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="G71" s="15" t="s">
+      <c r="F71" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="H71" s="15" t="s">
+      <c r="G71" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="I71" s="15" t="s">
+      <c r="H71" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="J71" s="15" t="s">
+      <c r="I71" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="K71" s="15" t="s">
+      <c r="J71" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="L71" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="M71" s="15" t="s">
+      <c r="K71" s="16" t="s">
         <v>343</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="M71" s="16" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="72" ht="55" customHeight="1" spans="1:13">
       <c r="A72" s="2"/>
-      <c r="B72" s="15" t="s">
-        <v>166</v>
+      <c r="B72" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="24" t="s">
-        <v>307</v>
-      </c>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="23"/>
+      <c r="E72" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
     </row>
     <row r="73" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A73" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>201</v>
+      <c r="A73" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="B73" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="F73" s="15" t="s">
+      <c r="E73" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="G73" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="H73" s="15" t="s">
+      <c r="F73" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="G73" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="I73" s="15" t="s">
+      <c r="H73" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="J73" s="15" t="s">
+      <c r="I73" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="K73" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="L73" s="15" t="s">
+      <c r="J73" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="K73" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="M73" s="15" t="s">
-        <v>347</v>
+      <c r="L73" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="M73" s="16" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1" spans="1:13">
       <c r="A74" s="2"/>
-      <c r="B74" s="15" t="s">
-        <v>207</v>
+      <c r="B74" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="H74" s="15" t="s">
+      <c r="E74" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="I74" s="15" t="s">
+      <c r="F74" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="J74" s="15" t="s">
+      <c r="G74" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="K74" s="15" t="s">
+      <c r="H74" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="L74" s="15" t="s">
+      <c r="I74" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="M74" s="15" t="s">
+      <c r="J74" s="16" t="s">
         <v>351</v>
+      </c>
+      <c r="K74" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="L74" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="M74" s="16" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1" spans="1:13">
       <c r="A75" s="2"/>
-      <c r="B75" s="15" t="s">
-        <v>352</v>
+      <c r="B75" s="16" t="s">
+        <v>353</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="I75" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="J75" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="K75" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="L75" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="M75" s="15" t="s">
-        <v>353</v>
+      <c r="E75" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="J75" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="L75" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="M75" s="16" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1" spans="1:13">
       <c r="A76" s="2"/>
-      <c r="B76" s="15" t="s">
-        <v>354</v>
+      <c r="B76" s="16" t="s">
+        <v>355</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="I76" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="J76" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="K76" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="L76" s="15" t="s">
-        <v>355</v>
-      </c>
-      <c r="M76" s="15" t="s">
-        <v>355</v>
+      <c r="E76" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="I76" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="J76" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="K76" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="L76" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="M76" s="16" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="77" ht="89" customHeight="1" spans="1:13">
       <c r="A77" s="2"/>
-      <c r="B77" s="15" t="s">
-        <v>166</v>
+      <c r="B77" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="24" t="s">
-        <v>356</v>
-      </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="23"/>
+      <c r="E77" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="25"/>
     </row>
     <row r="78" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A78" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="B78" s="15" t="s">
-        <v>201</v>
+      <c r="A78" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="F78" s="15" t="s">
+      <c r="E78" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="G78" s="15" t="s">
+      <c r="F78" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="H78" s="15" t="s">
+      <c r="G78" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="I78" s="15" t="s">
+      <c r="H78" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="J78" s="15" t="s">
-        <v>358</v>
-      </c>
-      <c r="K78" s="15" t="s">
+      <c r="I78" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="J78" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="L78" s="15" t="s">
+      <c r="K78" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="M78" s="15" t="s">
+      <c r="L78" s="16" t="s">
         <v>361</v>
+      </c>
+      <c r="M78" s="16" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1" spans="1:13">
       <c r="A79" s="2"/>
-      <c r="B79" s="15" t="s">
-        <v>207</v>
+      <c r="B79" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="G79" s="15" t="s">
+      <c r="E79" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="H79" s="15" t="s">
+      <c r="F79" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="I79" s="15" t="s">
+      <c r="G79" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="J79" s="15" t="s">
+      <c r="H79" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="K79" s="15" t="s">
+      <c r="I79" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="L79" s="15" t="s">
+      <c r="J79" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="M79" s="15" t="s">
+      <c r="K79" s="16" t="s">
         <v>367</v>
+      </c>
+      <c r="L79" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="M79" s="16" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1" spans="1:13">
       <c r="A80" s="2"/>
-      <c r="B80" s="15" t="s">
-        <v>211</v>
+      <c r="B80" s="16" t="s">
+        <v>212</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="G80" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="H80" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="I80" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="J80" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="K80" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="L80" s="24" t="s">
-        <v>368</v>
-      </c>
-      <c r="M80" s="24" t="s">
-        <v>368</v>
+      <c r="E80" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="G80" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="H80" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="I80" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="J80" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="K80" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="L80" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="M80" s="26" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="81" ht="44" customHeight="1" spans="1:13">
       <c r="A81" s="2"/>
-      <c r="B81" s="15" t="s">
-        <v>166</v>
+      <c r="B81" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="29" t="s">
-        <v>369</v>
-      </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="23"/>
+      <c r="E81" s="31" t="s">
+        <v>370</v>
+      </c>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
+      <c r="K81" s="25"/>
+      <c r="L81" s="25"/>
+      <c r="M81" s="25"/>
     </row>
     <row r="82" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A82" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="B82" s="15" t="s">
+      <c r="A82" s="24" t="s">
         <v>371</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>372</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="F82" s="15" t="s">
+      <c r="E82" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="G82" s="15" t="s">
+      <c r="F82" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="H82" s="15" t="s">
+      <c r="G82" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="I82" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="J82" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="K82" s="15" t="s">
+      <c r="H82" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="L82" s="15" t="s">
+      <c r="I82" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="J82" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="K82" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="M82" s="15" t="s">
+      <c r="L82" s="16" t="s">
         <v>378</v>
+      </c>
+      <c r="M82" s="16" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1" spans="1:13">
       <c r="A83" s="2"/>
-      <c r="B83" s="15" t="s">
-        <v>379</v>
+      <c r="B83" s="16" t="s">
+        <v>380</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="15" t="s">
-        <v>380</v>
+      <c r="E83" s="16" t="s">
+        <v>381</v>
       </c>
       <c r="F83" s="2"/>
-      <c r="G83" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="H83" s="15" t="s">
+      <c r="G83" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="I83" s="15" t="s">
+      <c r="H83" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="I83" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="J83" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="J83" s="15" t="s">
-        <v>375</v>
-      </c>
-      <c r="K83" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="L83" s="15" t="s">
+      <c r="K83" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="M83" s="15" t="s">
+      <c r="L83" s="16" t="s">
         <v>385</v>
+      </c>
+      <c r="M83" s="16" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1" spans="1:13">
       <c r="A84" s="2"/>
-      <c r="B84" s="15" t="s">
-        <v>386</v>
+      <c r="B84" s="16" t="s">
+        <v>387</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="15" t="s">
-        <v>387</v>
+      <c r="E84" s="16" t="s">
+        <v>388</v>
       </c>
       <c r="F84" s="2"/>
-      <c r="G84" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="H84" s="15" t="s">
+      <c r="G84" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="I84" s="15" t="s">
+      <c r="H84" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="J84" s="15" t="s">
+      <c r="I84" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="K84" s="15" t="s">
+      <c r="J84" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="L84" s="15" t="s">
+      <c r="K84" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="M84" s="15" t="s">
+      <c r="L84" s="16" t="s">
         <v>394</v>
+      </c>
+      <c r="M84" s="16" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1" spans="1:13">
       <c r="A85" s="2"/>
-      <c r="B85" s="15" t="s">
-        <v>395</v>
+      <c r="B85" s="16" t="s">
+        <v>396</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="15" t="s">
-        <v>396</v>
-      </c>
-      <c r="F85" s="15" t="s">
+      <c r="E85" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="G85" s="15" t="s">
+      <c r="F85" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="H85" s="15" t="s">
+      <c r="G85" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="I85" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="J85" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="K85" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="L85" s="15" t="s">
+      <c r="H85" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="M85" s="15" t="s">
-        <v>396</v>
+      <c r="I85" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="J85" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="K85" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="L85" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="M85" s="16" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1" spans="1:13">
       <c r="A86" s="2"/>
-      <c r="B86" s="15" t="s">
-        <v>401</v>
+      <c r="B86" s="16" t="s">
+        <v>402</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="F86" s="15" t="s">
+      <c r="E86" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="G86" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H86" s="15" t="s">
+      <c r="F86" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="I86" s="15" t="s">
+      <c r="G86" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="H86" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="J86" s="15" t="s">
+      <c r="I86" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="K86" s="15" t="s">
+      <c r="J86" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="L86" s="15" t="s">
+      <c r="K86" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="M86" s="15" t="s">
+      <c r="L86" s="16" t="s">
         <v>409</v>
+      </c>
+      <c r="M86" s="16" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="87" ht="24.75" customHeight="1" spans="1:13">
       <c r="A87" s="2"/>
-      <c r="B87" s="15" t="s">
-        <v>410</v>
+      <c r="B87" s="16" t="s">
+        <v>411</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="F87" s="15" t="s">
+      <c r="E87" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="G87" s="15" t="s">
+      <c r="F87" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="H87" s="15" t="s">
+      <c r="G87" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="I87" s="15" t="s">
+      <c r="H87" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="J87" s="15" t="s">
+      <c r="I87" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="K87" s="15" t="s">
+      <c r="J87" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="L87" s="15" t="s">
+      <c r="K87" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="M87" s="15" t="s">
+      <c r="L87" s="16" t="s">
         <v>419</v>
+      </c>
+      <c r="M87" s="16" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1" spans="1:13">
       <c r="A88" s="2"/>
-      <c r="B88" s="15" t="s">
-        <v>420</v>
+      <c r="B88" s="16" t="s">
+        <v>421</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="G88" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="H88" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="I88" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="J88" s="15" t="s">
+      <c r="E88" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="K88" s="15" t="s">
+      <c r="F88" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="L88" s="15" t="s">
+      <c r="G88" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="M88" s="15" t="s">
+      <c r="H88" s="16" t="s">
         <v>422</v>
+      </c>
+      <c r="I88" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="J88" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="K88" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="L88" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="M88" s="16" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="89" ht="90" customHeight="1" spans="1:13">
       <c r="A89" s="2"/>
-      <c r="B89" s="15" t="s">
-        <v>423</v>
+      <c r="B89" s="16" t="s">
+        <v>424</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="24" t="s">
-        <v>424</v>
-      </c>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
-      <c r="M89" s="23"/>
+      <c r="E89" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="25"/>
+      <c r="L89" s="25"/>
+      <c r="M89" s="25"/>
     </row>
     <row r="90" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A90" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="B90" s="30" t="s">
+      <c r="A90" s="24" t="s">
         <v>426</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="30" t="s">
+      <c r="B90" s="32" t="s">
         <v>427</v>
       </c>
-      <c r="F90" s="30" t="s">
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="G90" s="30" t="s">
+      <c r="F90" s="32" t="s">
         <v>429</v>
       </c>
-      <c r="H90" s="30" t="s">
+      <c r="G90" s="32" t="s">
         <v>430</v>
       </c>
-      <c r="I90" s="30" t="s">
+      <c r="H90" s="32" t="s">
         <v>431</v>
       </c>
-      <c r="J90" s="30" t="s">
+      <c r="I90" s="32" t="s">
         <v>432</v>
       </c>
-      <c r="K90" s="30" t="s">
+      <c r="J90" s="32" t="s">
         <v>433</v>
       </c>
-      <c r="L90" s="30" t="s">
+      <c r="K90" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="M90" s="30" t="s">
+      <c r="L90" s="32" t="s">
         <v>435</v>
+      </c>
+      <c r="M90" s="32" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1" spans="1:13">
       <c r="A91" s="2"/>
-      <c r="B91" s="30" t="s">
-        <v>436</v>
-      </c>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="30" t="s">
+      <c r="B91" s="32" t="s">
         <v>437</v>
       </c>
-      <c r="F91" s="30" t="s">
+      <c r="C91" s="33"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="G91" s="30" t="s">
+      <c r="F91" s="32" t="s">
         <v>439</v>
       </c>
-      <c r="H91" s="30" t="s">
+      <c r="G91" s="32" t="s">
         <v>440</v>
       </c>
-      <c r="I91" s="30" t="s">
+      <c r="H91" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="J91" s="30" t="s">
+      <c r="I91" s="32" t="s">
         <v>442</v>
       </c>
-      <c r="K91" s="30" t="s">
+      <c r="J91" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="L91" s="30" t="s">
+      <c r="K91" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="M91" s="30" t="s">
-        <v>434</v>
+      <c r="L91" s="32" t="s">
+        <v>445</v>
+      </c>
+      <c r="M91" s="32" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="92" ht="106" customHeight="1" spans="1:13">
       <c r="A92" s="2"/>
-      <c r="B92" s="15" t="s">
-        <v>166</v>
+      <c r="B92" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="21" t="s">
-        <v>445</v>
-      </c>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="23"/>
-      <c r="M92" s="23"/>
+      <c r="E92" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
+      <c r="K92" s="25"/>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
     </row>
     <row r="93" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A93" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="B93" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C93" s="15" t="s">
+      <c r="A93" s="24" t="s">
         <v>447</v>
       </c>
+      <c r="B93" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>448</v>
+      </c>
       <c r="D93" s="2"/>
-      <c r="E93" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="F93" s="15" t="s">
+      <c r="E93" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="G93" s="15" t="s">
+      <c r="F93" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="H93" s="15" t="s">
+      <c r="G93" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="I93" s="15" t="s">
+      <c r="H93" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="J93" s="15" t="s">
+      <c r="I93" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="K93" s="15" t="s">
+      <c r="J93" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="L93" s="15" t="s">
+      <c r="K93" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="M93" s="15" t="s">
+      <c r="L93" s="16" t="s">
         <v>456</v>
+      </c>
+      <c r="M93" s="16" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1" spans="1:13">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D94" s="2"/>
-      <c r="E94" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="F94" s="15" t="s">
+      <c r="E94" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="G94" s="15" t="s">
+      <c r="F94" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="H94" s="15" t="s">
+      <c r="G94" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="I94" s="15" t="s">
+      <c r="H94" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="J94" s="15" t="s">
+      <c r="I94" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="K94" s="15" t="s">
+      <c r="J94" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="L94" s="15" t="s">
+      <c r="K94" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="M94" s="15" t="s">
+      <c r="L94" s="16" t="s">
         <v>466</v>
+      </c>
+      <c r="M94" s="16" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1" spans="1:13">
       <c r="A95" s="2"/>
-      <c r="B95" s="15" t="s">
-        <v>207</v>
+      <c r="B95" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
-      <c r="E95" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="F95" s="15" t="s">
+      <c r="E95" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="G95" s="15" t="s">
+      <c r="F95" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="H95" s="15" t="s">
+      <c r="G95" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="I95" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="J95" s="15" t="s">
+      <c r="H95" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="K95" s="15" t="s">
+      <c r="I95" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="J95" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="L95" s="15" t="s">
+      <c r="K95" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="M95" s="15" t="s">
+      <c r="L95" s="16" t="s">
         <v>474</v>
+      </c>
+      <c r="M95" s="16" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="96" ht="149" customHeight="1" spans="1:13">
       <c r="A96" s="2"/>
-      <c r="B96" s="15" t="s">
-        <v>166</v>
+      <c r="B96" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="E96" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="23"/>
-      <c r="M96" s="23"/>
+      <c r="E96" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
+      <c r="K96" s="25"/>
+      <c r="L96" s="25"/>
+      <c r="M96" s="25"/>
     </row>
     <row r="97" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A97" s="32" t="s">
-        <v>476</v>
-      </c>
-      <c r="B97" s="15" t="s">
+      <c r="A97" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="C97" s="15" t="s">
-        <v>201</v>
+      <c r="B97" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="E97" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="F97" s="15" t="s">
+      <c r="E97" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="G97" s="15" t="s">
+      <c r="F97" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="H97" s="15" t="s">
+      <c r="G97" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="I97" s="15" t="s">
+      <c r="H97" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="J97" s="15" t="s">
+      <c r="I97" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="K97" s="15" t="s">
+      <c r="J97" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="L97" s="15" t="s">
+      <c r="K97" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="M97" s="15" t="s">
+      <c r="L97" s="16" t="s">
         <v>486</v>
+      </c>
+      <c r="M97" s="16" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A98" s="33"/>
+      <c r="A98" s="35"/>
       <c r="B98" s="2"/>
-      <c r="C98" s="15" t="s">
-        <v>207</v>
+      <c r="C98" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D98" s="2"/>
-      <c r="E98" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="F98" s="15" t="s">
+      <c r="E98" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="G98" s="15" t="s">
+      <c r="F98" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="H98" s="15" t="s">
+      <c r="G98" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="I98" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="J98" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="K98" s="15" t="s">
+      <c r="H98" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="L98" s="15" t="s">
+      <c r="I98" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="J98" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="K98" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="M98" s="15" t="s">
+      <c r="L98" s="16" t="s">
         <v>493</v>
+      </c>
+      <c r="M98" s="16" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="99" ht="83" customHeight="1" spans="1:13">
-      <c r="A99" s="33"/>
-      <c r="B99" s="15" t="s">
-        <v>166</v>
+      <c r="A99" s="35"/>
+      <c r="B99" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
-      <c r="E99" s="24" t="s">
-        <v>494</v>
-      </c>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23"/>
-      <c r="M99" s="23"/>
+      <c r="E99" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+      <c r="L99" s="25"/>
+      <c r="M99" s="25"/>
     </row>
     <row r="100" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A100" s="33"/>
-      <c r="B100" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>201</v>
+      <c r="A100" s="35"/>
+      <c r="B100" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="D100" s="2"/>
-      <c r="E100" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="F100" s="15" t="s">
+      <c r="E100" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="G100" s="15" t="s">
+      <c r="F100" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="H100" s="15" t="s">
+      <c r="G100" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="I100" s="15" t="s">
+      <c r="H100" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="J100" s="15" t="s">
+      <c r="I100" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="K100" s="15" t="s">
+      <c r="J100" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="L100" s="15" t="s">
+      <c r="K100" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="M100" s="15" t="s">
+      <c r="L100" s="16" t="s">
         <v>504</v>
+      </c>
+      <c r="M100" s="16" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A101" s="33"/>
+      <c r="A101" s="35"/>
       <c r="B101" s="2"/>
-      <c r="C101" s="15" t="s">
-        <v>207</v>
+      <c r="C101" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D101" s="2"/>
-      <c r="E101" s="21" t="s">
-        <v>505</v>
-      </c>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="23"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="23"/>
-      <c r="M101" s="23"/>
+      <c r="E101" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
+      <c r="K101" s="25"/>
+      <c r="L101" s="25"/>
+      <c r="M101" s="25"/>
     </row>
     <row r="102" ht="84" customHeight="1" spans="1:13">
-      <c r="A102" s="33"/>
-      <c r="B102" s="15" t="s">
-        <v>166</v>
+      <c r="A102" s="35"/>
+      <c r="B102" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="E102" s="24" t="s">
-        <v>506</v>
-      </c>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="23"/>
-      <c r="J102" s="23"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="23"/>
-      <c r="M102" s="23"/>
+      <c r="E102" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
+      <c r="K102" s="25"/>
+      <c r="L102" s="25"/>
+      <c r="M102" s="25"/>
     </row>
     <row r="103" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A103" s="33"/>
-      <c r="B103" s="15" t="s">
-        <v>507</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>201</v>
+      <c r="A103" s="35"/>
+      <c r="B103" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G103" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I103" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J103" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K103" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L103" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M103" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="104" ht="65" customHeight="1" spans="1:13">
-      <c r="A104" s="33"/>
-      <c r="B104" s="15" t="s">
-        <v>166</v>
+      <c r="A104" s="35"/>
+      <c r="B104" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
-      <c r="E104" s="21" t="s">
-        <v>508</v>
-      </c>
-      <c r="F104" s="23"/>
-      <c r="G104" s="23"/>
-      <c r="H104" s="23"/>
-      <c r="I104" s="23"/>
-      <c r="J104" s="23"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="23"/>
-      <c r="M104" s="23"/>
+      <c r="E104" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="25"/>
+      <c r="L104" s="25"/>
+      <c r="M104" s="25"/>
     </row>
     <row r="105" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A105" s="33"/>
-      <c r="B105" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>201</v>
+      <c r="A105" s="35"/>
+      <c r="B105" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>202</v>
       </c>
       <c r="D105" s="2"/>
-      <c r="E105" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="F105" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="G105" s="15" t="s">
-        <v>510</v>
-      </c>
-      <c r="H105" s="15" t="s">
+      <c r="E105" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="I105" s="15" t="s">
+      <c r="F105" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="J105" s="15" t="s">
+      <c r="G105" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="K105" s="15" t="s">
+      <c r="H105" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="L105" s="15" t="s">
+      <c r="I105" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="M105" s="15" t="s">
+      <c r="J105" s="16" t="s">
         <v>512</v>
+      </c>
+      <c r="K105" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="L105" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="M105" s="16" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A106" s="33"/>
+      <c r="A106" s="35"/>
       <c r="B106" s="2"/>
-      <c r="C106" s="15" t="s">
-        <v>207</v>
+      <c r="C106" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D106" s="2"/>
-      <c r="E106" s="15" t="s">
+      <c r="E106" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="I106" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="J106" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="K106" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="F106" s="15" t="s">
+      <c r="L106" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="G106" s="15" t="s">
+      <c r="M106" s="16" t="s">
         <v>512</v>
-      </c>
-      <c r="H106" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="I106" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="J106" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="K106" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="L106" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="M106" s="15" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="107" ht="79" customHeight="1" spans="1:13">
-      <c r="A107" s="33"/>
-      <c r="B107" s="15" t="s">
-        <v>166</v>
+      <c r="A107" s="35"/>
+      <c r="B107" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
-      <c r="E107" s="24" t="s">
-        <v>513</v>
-      </c>
-      <c r="F107" s="23"/>
-      <c r="G107" s="23"/>
-      <c r="H107" s="23"/>
-      <c r="I107" s="23"/>
-      <c r="J107" s="23"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="23"/>
-      <c r="M107" s="23"/>
+      <c r="E107" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
+      <c r="K107" s="25"/>
+      <c r="L107" s="25"/>
+      <c r="M107" s="25"/>
     </row>
     <row r="108" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A108" s="22" t="s">
-        <v>514</v>
+      <c r="A108" s="24" t="s">
+        <v>515</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
-      <c r="E108" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="F108" s="15" t="s">
+      <c r="E108" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="G108" s="15" t="s">
+      <c r="F108" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="H108" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="I108" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="J108" s="15" t="s">
+      <c r="G108" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="K108" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="L108" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="M108" s="15" t="s">
-        <v>518</v>
+      <c r="H108" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="I108" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="J108" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="K108" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="L108" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="M108" s="16" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="109" ht="24.75" customHeight="1" spans="1:13">
       <c r="A109" s="2"/>
       <c r="B109" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
-      <c r="E109" s="15" t="s">
+      <c r="E109" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="G109" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="H109" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="F109" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="G109" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="H109" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="I109" s="15" t="s">
+      <c r="I109" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="J109" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="K109" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="L109" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="M109" s="16" t="s">
         <v>522</v>
-      </c>
-      <c r="J109" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="K109" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="L109" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="M109" s="15" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1" spans="1:13">
       <c r="A110" s="2"/>
       <c r="B110" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
-      <c r="E110" s="15" t="s">
+      <c r="E110" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="G110" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="H110" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="I110" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="J110" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="K110" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="F110" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="G110" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="H110" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="I110" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="J110" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="K110" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="L110" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="M110" s="15" t="s">
-        <v>519</v>
+      <c r="L110" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="M110" s="16" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="111" ht="95" customHeight="1" spans="1:13">
       <c r="A111" s="2"/>
-      <c r="B111" s="15" t="s">
-        <v>166</v>
+      <c r="B111" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
-      <c r="E111" s="24" t="s">
-        <v>527</v>
-      </c>
-      <c r="F111" s="23"/>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23"/>
-      <c r="I111" s="23"/>
-      <c r="J111" s="23"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="23"/>
-      <c r="M111" s="23"/>
+      <c r="E111" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
+      <c r="K111" s="25"/>
+      <c r="L111" s="25"/>
+      <c r="M111" s="25"/>
     </row>
     <row r="112" ht="39" customHeight="1" spans="1:13">
-      <c r="A112" s="22" t="s">
-        <v>528</v>
-      </c>
-      <c r="B112" s="15" t="s">
-        <v>207</v>
+      <c r="A112" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
-      <c r="E112" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="F112" s="15" t="s">
+      <c r="E112" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="G112" s="15" t="s">
+      <c r="F112" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="H112" s="15" t="s">
+      <c r="G112" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="H112" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="I112" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="J112" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="K112" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="L112" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="I112" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="J112" s="15" t="s">
+      <c r="M112" s="16" t="s">
         <v>533</v>
-      </c>
-      <c r="K112" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="L112" s="15" t="s">
-        <v>530</v>
-      </c>
-      <c r="M112" s="15" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="113" ht="62" customHeight="1" spans="1:13">
       <c r="A113" s="2"/>
-      <c r="B113" s="15" t="s">
-        <v>166</v>
+      <c r="B113" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
-      <c r="E113" s="24" t="s">
-        <v>534</v>
-      </c>
-      <c r="F113" s="23"/>
-      <c r="G113" s="23"/>
-      <c r="H113" s="23"/>
-      <c r="I113" s="23"/>
-      <c r="J113" s="23"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="23"/>
-      <c r="M113" s="23"/>
+      <c r="E113" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
+      <c r="K113" s="25"/>
+      <c r="L113" s="25"/>
+      <c r="M113" s="25"/>
     </row>
     <row r="114" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A114" s="22" t="s">
-        <v>535</v>
+      <c r="A114" s="24" t="s">
+        <v>536</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
-      <c r="E114" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="F114" s="15" t="s">
+      <c r="E114" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="G114" s="15" t="s">
+      <c r="F114" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="H114" s="15" t="s">
+      <c r="G114" s="16" t="s">
         <v>540</v>
       </c>
-      <c r="I114" s="15" t="s">
+      <c r="H114" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="J114" s="15" t="s">
+      <c r="I114" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="K114" s="15" t="s">
+      <c r="J114" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="L114" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="M114" s="15" t="s">
+      <c r="K114" s="16" t="s">
         <v>544</v>
+      </c>
+      <c r="L114" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="M114" s="16" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1" spans="1:13">
       <c r="A115" s="2"/>
       <c r="B115" s="7" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
-      <c r="E115" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="F115" s="15" t="s">
+      <c r="E115" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="G115" s="15" t="s">
+      <c r="F115" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="H115" s="15" t="s">
+      <c r="G115" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="I115" s="15" t="s">
+      <c r="H115" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="J115" s="15" t="s">
+      <c r="I115" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="K115" s="15" t="s">
+      <c r="J115" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="L115" s="15" t="s">
+      <c r="K115" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="M115" s="15" t="s">
-        <v>546</v>
+      <c r="L115" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="M115" s="16" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1" spans="1:13">
       <c r="A116" s="2"/>
-      <c r="B116" s="15" t="s">
-        <v>554</v>
+      <c r="B116" s="16" t="s">
+        <v>555</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
-      <c r="E116" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="F116" s="15" t="s">
+      <c r="E116" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="G116" s="15" t="s">
+      <c r="F116" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="H116" s="15" t="s">
+      <c r="G116" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="I116" s="15" t="s">
+      <c r="H116" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="J116" s="15" t="s">
+      <c r="I116" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="K116" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="L116" s="15" t="s">
+      <c r="J116" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="K116" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="M116" s="15" t="s">
+      <c r="L116" s="16" t="s">
         <v>557</v>
+      </c>
+      <c r="M116" s="16" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="117" ht="24.75" customHeight="1" spans="1:13">
       <c r="A117" s="2"/>
-      <c r="B117" s="15" t="s">
-        <v>561</v>
+      <c r="B117" s="16" t="s">
+        <v>562</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
-      <c r="E117" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="F117" s="15" t="s">
+      <c r="E117" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="G117" s="15" t="s">
+      <c r="F117" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="H117" s="15" t="s">
+      <c r="G117" s="16" t="s">
         <v>565</v>
       </c>
-      <c r="I117" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="J117" s="15" t="s">
+      <c r="H117" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="K117" s="15" t="s">
+      <c r="I117" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="J117" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="L117" s="15" t="s">
+      <c r="K117" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="L117" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="M117" s="16" t="s">
         <v>565</v>
-      </c>
-      <c r="M117" s="15" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1" spans="1:13">
       <c r="A118" s="2"/>
-      <c r="B118" s="15" t="s">
-        <v>568</v>
+      <c r="B118" s="16" t="s">
+        <v>569</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
-      <c r="E118" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="F118" s="15" t="s">
+      <c r="E118" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="G118" s="15" t="s">
+      <c r="F118" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="H118" s="15" t="s">
+      <c r="G118" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="I118" s="15" t="s">
+      <c r="H118" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="J118" s="15" t="s">
+      <c r="I118" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="K118" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="L118" s="15" t="s">
+      <c r="J118" s="16" t="s">
         <v>575</v>
       </c>
-      <c r="M118" s="15" t="s">
+      <c r="K118" s="16" t="s">
         <v>570</v>
+      </c>
+      <c r="L118" s="16" t="s">
+        <v>576</v>
+      </c>
+      <c r="M118" s="16" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="119" ht="77" customHeight="1" spans="1:13">
       <c r="A119" s="2"/>
-      <c r="B119" s="15" t="s">
-        <v>166</v>
+      <c r="B119" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
-      <c r="E119" s="21" t="s">
-        <v>576</v>
-      </c>
-      <c r="F119" s="23"/>
-      <c r="G119" s="23"/>
-      <c r="H119" s="23"/>
-      <c r="I119" s="23"/>
-      <c r="J119" s="23"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="23"/>
-      <c r="M119" s="23"/>
+      <c r="E119" s="23" t="s">
+        <v>577</v>
+      </c>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
+      <c r="K119" s="25"/>
+      <c r="L119" s="25"/>
+      <c r="M119" s="25"/>
     </row>
     <row r="120" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A120" s="22" t="s">
-        <v>577</v>
-      </c>
-      <c r="B120" s="15" t="s">
+      <c r="A120" s="24" t="s">
         <v>578</v>
       </c>
-      <c r="C120" s="15" t="s">
+      <c r="B120" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="D120" s="15" t="s">
+      <c r="C120" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="E120" s="15" t="s">
+      <c r="D120" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="F120" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="G120" s="15" t="s">
+      <c r="E120" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="H120" s="15" t="s">
+      <c r="F120" s="16" t="s">
+        <v>582</v>
+      </c>
+      <c r="G120" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="I120" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="J120" s="15" t="s">
+      <c r="H120" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="K120" s="15" t="s">
+      <c r="I120" s="16" t="s">
+        <v>584</v>
+      </c>
+      <c r="J120" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="L120" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="M120" s="15" t="s">
+      <c r="K120" s="16" t="s">
+        <v>586</v>
+      </c>
+      <c r="L120" s="16" t="s">
         <v>585</v>
+      </c>
+      <c r="M120" s="16" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1" spans="1:13">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
-      <c r="D121" s="15" t="s">
-        <v>586</v>
-      </c>
-      <c r="E121" s="15" t="s">
+      <c r="D121" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="F121" s="15" t="s">
+      <c r="E121" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="G121" s="15" t="s">
+      <c r="F121" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="H121" s="15" t="s">
+      <c r="G121" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="I121" s="15" t="s">
+      <c r="H121" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="J121" s="15" t="s">
+      <c r="I121" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="K121" s="15" t="s">
+      <c r="J121" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="L121" s="15" t="s">
+      <c r="K121" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="M121" s="15" t="s">
-        <v>587</v>
+      <c r="L121" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="M121" s="16" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="122" ht="24.75" customHeight="1" spans="1:13">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
-      <c r="D122" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="E122" s="15" t="s">
+      <c r="D122" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="F122" s="15" t="s">
+      <c r="E122" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="G122" s="15" t="s">
+      <c r="F122" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="H122" s="15" t="s">
+      <c r="G122" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="I122" s="15" t="s">
+      <c r="H122" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="J122" s="15" t="s">
+      <c r="I122" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="K122" s="15" t="s">
+      <c r="J122" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="L122" s="15" t="s">
+      <c r="K122" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="M122" s="15" t="s">
+      <c r="L122" s="16" t="s">
         <v>604</v>
+      </c>
+      <c r="M122" s="16" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1" spans="1:13">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="E123" s="15" t="s">
+      <c r="D123" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="F123" s="15" t="s">
+      <c r="E123" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="G123" s="15" t="s">
+      <c r="F123" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="H123" s="15" t="s">
+      <c r="G123" s="16" t="s">
         <v>609</v>
       </c>
-      <c r="I123" s="15" t="s">
+      <c r="H123" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="J123" s="15" t="s">
+      <c r="I123" s="16" t="s">
         <v>611</v>
       </c>
-      <c r="K123" s="15" t="s">
+      <c r="J123" s="16" t="s">
         <v>612</v>
       </c>
-      <c r="L123" s="15" t="s">
+      <c r="K123" s="16" t="s">
         <v>613</v>
       </c>
-      <c r="M123" s="15" t="s">
+      <c r="L123" s="16" t="s">
         <v>614</v>
+      </c>
+      <c r="M123" s="16" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="124" ht="24.75" customHeight="1" spans="1:13">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
-      <c r="D124" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="E124" s="15" t="s">
+      <c r="D124" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="F124" s="15" t="s">
+      <c r="E124" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="G124" s="15" t="s">
+      <c r="F124" s="16" t="s">
         <v>618</v>
       </c>
-      <c r="H124" s="15" t="s">
+      <c r="G124" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="I124" s="15" t="s">
+      <c r="H124" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="J124" s="15" t="s">
+      <c r="I124" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="K124" s="15" t="s">
+      <c r="J124" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="L124" s="15" t="s">
+      <c r="K124" s="16" t="s">
         <v>623</v>
       </c>
-      <c r="M124" s="15" t="s">
+      <c r="L124" s="16" t="s">
         <v>624</v>
+      </c>
+      <c r="M124" s="16" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1" spans="1:13">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="E125" s="15" t="s">
+      <c r="D125" s="16" t="s">
         <v>626</v>
       </c>
-      <c r="F125" s="15" t="s">
+      <c r="E125" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="G125" s="15" t="s">
+      <c r="F125" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="H125" s="15" t="s">
+      <c r="G125" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="I125" s="15" t="s">
+      <c r="H125" s="16" t="s">
         <v>630</v>
       </c>
-      <c r="J125" s="15" t="s">
+      <c r="I125" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="K125" s="15" t="s">
+      <c r="J125" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="K125" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="L125" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="M125" s="16" t="s">
         <v>628</v>
-      </c>
-      <c r="L125" s="15" t="s">
-        <v>632</v>
-      </c>
-      <c r="M125" s="15" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="126" ht="24.75" customHeight="1" spans="1:13">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
-      <c r="C126" s="15" t="s">
-        <v>207</v>
+      <c r="C126" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="D126" s="2"/>
-      <c r="E126" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="F126" s="15" t="s">
+      <c r="E126" s="16" t="s">
         <v>634</v>
       </c>
-      <c r="G126" s="15" t="s">
+      <c r="F126" s="16" t="s">
         <v>635</v>
       </c>
-      <c r="H126" s="15" t="s">
+      <c r="G126" s="16" t="s">
         <v>636</v>
       </c>
-      <c r="I126" s="15" t="s">
+      <c r="H126" s="16" t="s">
         <v>637</v>
       </c>
-      <c r="J126" s="15" t="s">
+      <c r="I126" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="K126" s="15" t="s">
+      <c r="J126" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="L126" s="15" t="s">
+      <c r="K126" s="16" t="s">
         <v>640</v>
       </c>
-      <c r="M126" s="15" t="s">
+      <c r="L126" s="16" t="s">
         <v>641</v>
+      </c>
+      <c r="M126" s="16" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="127" ht="24.75" customHeight="1" spans="1:13">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="15" t="s">
-        <v>605</v>
-      </c>
-      <c r="E127" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="F127" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="H127" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="I127" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="J127" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="K127" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="L127" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="M127" s="15" t="s">
-        <v>642</v>
+      <c r="C127" s="30"/>
+      <c r="D127" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="G127" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="H127" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="I127" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="J127" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="K127" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="L127" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="M127" s="16" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1" spans="1:13">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="15" t="s">
-        <v>615</v>
-      </c>
-      <c r="E128" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="F128" s="15" t="s">
+      <c r="C128" s="30"/>
+      <c r="D128" s="16" t="s">
+        <v>616</v>
+      </c>
+      <c r="E128" s="16" t="s">
         <v>644</v>
       </c>
-      <c r="G128" s="15" t="s">
+      <c r="F128" s="16" t="s">
         <v>645</v>
       </c>
-      <c r="H128" s="15" t="s">
-        <v>636</v>
-      </c>
-      <c r="I128" s="15" t="s">
+      <c r="G128" s="16" t="s">
         <v>646</v>
       </c>
-      <c r="J128" s="15" t="s">
+      <c r="H128" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="I128" s="16" t="s">
         <v>647</v>
       </c>
-      <c r="K128" s="15" t="s">
-        <v>639</v>
-      </c>
-      <c r="L128" s="15" t="s">
-        <v>644</v>
-      </c>
-      <c r="M128" s="15" t="s">
-        <v>641</v>
+      <c r="J128" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="K128" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="L128" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="M128" s="16" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="129" ht="24.75" customHeight="1" spans="1:13">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="15" t="s">
-        <v>586</v>
-      </c>
-      <c r="E129" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="F129" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="G129" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="H129" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="I129" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="J129" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="K129" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="L129" s="15" t="s">
-        <v>633</v>
-      </c>
-      <c r="M129" s="15" t="s">
-        <v>633</v>
+      <c r="C129" s="30"/>
+      <c r="D129" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="G129" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="H129" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="I129" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="J129" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="K129" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="L129" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="M129" s="16" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="130" ht="24.75" customHeight="1" spans="1:13">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="E130" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="F130" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="G130" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="H130" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="I130" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="J130" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="K130" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="L130" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="M130" s="15" t="s">
-        <v>648</v>
+      <c r="C130" s="30"/>
+      <c r="D130" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="F130" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="G130" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="H130" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="I130" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="J130" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="K130" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="L130" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="M130" s="16" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="131" ht="24.75" customHeight="1" spans="1:13">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="15" t="s">
-        <v>625</v>
-      </c>
-      <c r="E131" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="F131" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="G131" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="H131" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="I131" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="J131" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="K131" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="L131" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="M131" s="15" t="s">
-        <v>649</v>
+      <c r="C131" s="30"/>
+      <c r="D131" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="F131" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="G131" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="H131" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="I131" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="J131" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="K131" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="L131" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="M131" s="16" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="132" ht="24.75" customHeight="1" spans="1:13">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="E132" s="15" t="s">
+      <c r="C132" s="30"/>
+      <c r="D132" s="16" t="s">
         <v>651</v>
       </c>
-      <c r="F132" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="G132" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="H132" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="I132" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="J132" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="K132" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="L132" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="M132" s="15" t="s">
-        <v>651</v>
+      <c r="E132" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="F132" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="G132" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="H132" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="I132" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="J132" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="K132" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="L132" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="M132" s="16" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="133" ht="24.75" customHeight="1" spans="1:13">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="E133" s="15" t="s">
+      <c r="C133" s="30"/>
+      <c r="D133" s="16" t="s">
         <v>653</v>
       </c>
-      <c r="F133" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="G133" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="H133" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="I133" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="J133" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="K133" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="L133" s="15" t="s">
-        <v>653</v>
-      </c>
-      <c r="M133" s="15" t="s">
-        <v>653</v>
+      <c r="E133" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="F133" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="G133" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="H133" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="I133" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="J133" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="K133" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="L133" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="M133" s="16" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="134" ht="65" customHeight="1" spans="1:13">
-      <c r="A134" s="28"/>
-      <c r="B134" s="15" t="s">
-        <v>166</v>
+      <c r="A134" s="30"/>
+      <c r="B134" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
-      <c r="E134" s="24" t="s">
-        <v>654</v>
-      </c>
-      <c r="F134" s="23"/>
-      <c r="G134" s="23"/>
-      <c r="H134" s="23"/>
-      <c r="I134" s="23"/>
-      <c r="J134" s="23"/>
-      <c r="K134" s="23"/>
-      <c r="L134" s="23"/>
-      <c r="M134" s="23"/>
+      <c r="E134" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="25"/>
+      <c r="K134" s="25"/>
+      <c r="L134" s="25"/>
+      <c r="M134" s="25"/>
     </row>
     <row r="135" ht="116" customHeight="1" spans="1:13">
-      <c r="A135" s="22" t="s">
-        <v>655</v>
-      </c>
-      <c r="B135" s="15" t="s">
+      <c r="A135" s="24" t="s">
         <v>656</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>657</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
-      <c r="E135" s="24" t="s">
-        <v>657</v>
-      </c>
-      <c r="F135" s="24" t="s">
+      <c r="E135" s="26" t="s">
         <v>658</v>
       </c>
-      <c r="G135" s="24" t="s">
+      <c r="F135" s="26" t="s">
         <v>659</v>
       </c>
-      <c r="H135" s="24" t="s">
+      <c r="G135" s="26" t="s">
         <v>660</v>
       </c>
-      <c r="I135" s="24" t="s">
+      <c r="H135" s="26" t="s">
         <v>661</v>
       </c>
-      <c r="J135" s="24" t="s">
+      <c r="I135" s="26" t="s">
         <v>662</v>
       </c>
-      <c r="K135" s="24" t="s">
+      <c r="J135" s="26" t="s">
         <v>663</v>
       </c>
-      <c r="L135" s="24" t="s">
+      <c r="K135" s="26" t="s">
         <v>664</v>
       </c>
-      <c r="M135" s="24" t="s">
+      <c r="L135" s="26" t="s">
         <v>665</v>
+      </c>
+      <c r="M135" s="26" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="136" ht="108" customHeight="1" spans="1:13">
       <c r="A136" s="2"/>
-      <c r="B136" s="15" t="s">
-        <v>666</v>
+      <c r="B136" s="16" t="s">
+        <v>667</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
-      <c r="E136" s="24" t="s">
-        <v>667</v>
-      </c>
-      <c r="F136" s="24" t="s">
+      <c r="E136" s="26" t="s">
         <v>668</v>
       </c>
-      <c r="G136" s="24" t="s">
-        <v>665</v>
-      </c>
-      <c r="H136" s="24" t="s">
+      <c r="F136" s="26" t="s">
         <v>669</v>
       </c>
-      <c r="I136" s="24" t="s">
+      <c r="G136" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="H136" s="26" t="s">
         <v>670</v>
       </c>
-      <c r="J136" s="24" t="s">
+      <c r="I136" s="26" t="s">
         <v>671</v>
       </c>
-      <c r="K136" s="24" t="s">
+      <c r="J136" s="26" t="s">
         <v>672</v>
       </c>
-      <c r="L136" s="24" t="s">
+      <c r="K136" s="26" t="s">
         <v>673</v>
       </c>
-      <c r="M136" s="24" t="s">
+      <c r="L136" s="26" t="s">
         <v>674</v>
+      </c>
+      <c r="M136" s="26" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="137" ht="43" customHeight="1" spans="1:13">
       <c r="A137" s="2"/>
-      <c r="B137" s="15" t="s">
-        <v>166</v>
+      <c r="B137" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
-      <c r="E137" s="24" t="s">
-        <v>675</v>
-      </c>
-      <c r="F137" s="23"/>
-      <c r="G137" s="23"/>
-      <c r="H137" s="23"/>
-      <c r="I137" s="23"/>
-      <c r="J137" s="23"/>
-      <c r="K137" s="23"/>
-      <c r="L137" s="23"/>
-      <c r="M137" s="23"/>
+      <c r="E137" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="25"/>
+      <c r="K137" s="25"/>
+      <c r="L137" s="25"/>
+      <c r="M137" s="25"/>
     </row>
     <row r="138" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A138" s="22" t="s">
-        <v>676</v>
-      </c>
-      <c r="B138" s="15" t="s">
-        <v>207</v>
+      <c r="A138" s="24" t="s">
+        <v>677</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>208</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
-      <c r="E138" s="15" t="s">
-        <v>677</v>
-      </c>
-      <c r="F138" s="15" t="s">
+      <c r="E138" s="16" t="s">
         <v>678</v>
       </c>
-      <c r="G138" s="15" t="s">
-        <v>678</v>
-      </c>
-      <c r="H138" s="15" t="s">
-        <v>678</v>
-      </c>
-      <c r="I138" s="15" t="s">
-        <v>678</v>
-      </c>
-      <c r="J138" s="15" t="s">
+      <c r="F138" s="16" t="s">
         <v>679</v>
       </c>
-      <c r="K138" s="15" t="s">
+      <c r="G138" s="16" t="s">
         <v>679</v>
       </c>
-      <c r="L138" s="15" t="s">
+      <c r="H138" s="16" t="s">
         <v>679</v>
       </c>
-      <c r="M138" s="15" t="s">
+      <c r="I138" s="16" t="s">
         <v>679</v>
+      </c>
+      <c r="J138" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="K138" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="L138" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="M138" s="16" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="139" ht="84" customHeight="1" spans="1:13">
       <c r="A139" s="2"/>
-      <c r="B139" s="15" t="s">
-        <v>166</v>
+      <c r="B139" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
-      <c r="E139" s="24" t="s">
-        <v>680</v>
-      </c>
-      <c r="F139" s="23"/>
-      <c r="G139" s="23"/>
-      <c r="H139" s="23"/>
-      <c r="I139" s="23"/>
-      <c r="J139" s="23"/>
-      <c r="K139" s="23"/>
-      <c r="L139" s="23"/>
-      <c r="M139" s="23"/>
+      <c r="E139" s="26" t="s">
+        <v>681</v>
+      </c>
+      <c r="F139" s="25"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="25"/>
+      <c r="K139" s="25"/>
+      <c r="L139" s="25"/>
+      <c r="M139" s="25"/>
     </row>
     <row r="140" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A140" s="22" t="s">
-        <v>681</v>
-      </c>
-      <c r="B140" s="15" t="s">
+      <c r="A140" s="24" t="s">
         <v>682</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>683</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
-      <c r="E140" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="F140" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="G140" s="15" t="s">
+      <c r="E140" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="H140" s="15" t="s">
+      <c r="F140" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="I140" s="15" t="s">
-        <v>684</v>
-      </c>
-      <c r="J140" s="15" t="s">
+      <c r="G140" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="K140" s="15" t="s">
+      <c r="H140" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="L140" s="15" t="s">
+      <c r="I140" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="M140" s="15" t="s">
-        <v>685</v>
+      <c r="J140" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="K140" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="L140" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="M140" s="16" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="141" ht="78" customHeight="1" spans="1:13">
       <c r="A141" s="2"/>
-      <c r="B141" s="15" t="s">
-        <v>166</v>
+      <c r="B141" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
-      <c r="E141" s="21" t="s">
-        <v>686</v>
-      </c>
-      <c r="F141" s="23"/>
-      <c r="G141" s="23"/>
-      <c r="H141" s="23"/>
-      <c r="I141" s="23"/>
-      <c r="J141" s="23"/>
-      <c r="K141" s="23"/>
-      <c r="L141" s="23"/>
-      <c r="M141" s="23"/>
+      <c r="E141" s="23" t="s">
+        <v>687</v>
+      </c>
+      <c r="F141" s="25"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="25"/>
+      <c r="K141" s="25"/>
+      <c r="L141" s="25"/>
+      <c r="M141" s="25"/>
     </row>
     <row r="142" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A142" s="22" t="s">
-        <v>687</v>
-      </c>
-      <c r="B142" s="15" t="s">
+      <c r="A142" s="24" t="s">
         <v>688</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>689</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
-      <c r="E142" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="F142" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="G142" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="H142" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="I142" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="J142" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="K142" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="L142" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="M142" s="15" t="s">
-        <v>689</v>
+      <c r="E142" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="F142" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="G142" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="H142" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="I142" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="J142" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="K142" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="L142" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="M142" s="16" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="143" ht="24.75" customHeight="1" spans="1:13">
       <c r="A143" s="2"/>
-      <c r="B143" s="15" t="s">
-        <v>690</v>
+      <c r="B143" s="16" t="s">
+        <v>691</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
-      <c r="E143" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="F143" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="G143" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="H143" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="I143" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="J143" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="K143" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="L143" s="15" t="s">
-        <v>689</v>
-      </c>
-      <c r="M143" s="15" t="s">
-        <v>689</v>
+      <c r="E143" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="F143" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="G143" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="H143" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="I143" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="J143" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="K143" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="L143" s="16" t="s">
+        <v>690</v>
+      </c>
+      <c r="M143" s="16" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="144" ht="49.5" customHeight="1" spans="1:13">
       <c r="A144" s="2"/>
-      <c r="B144" s="15" t="s">
-        <v>166</v>
+      <c r="B144" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
-      <c r="E144" s="24" t="s">
-        <v>691</v>
-      </c>
-      <c r="F144" s="23"/>
-      <c r="G144" s="23"/>
-      <c r="H144" s="23"/>
-      <c r="I144" s="23"/>
-      <c r="J144" s="23"/>
-      <c r="K144" s="23"/>
-      <c r="L144" s="23"/>
-      <c r="M144" s="23"/>
+      <c r="E144" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="F144" s="25"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="25"/>
+      <c r="I144" s="25"/>
+      <c r="J144" s="25"/>
+      <c r="K144" s="25"/>
+      <c r="L144" s="25"/>
+      <c r="M144" s="25"/>
     </row>
     <row r="145" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A145" s="22" t="s">
-        <v>692</v>
-      </c>
-      <c r="B145" s="15" t="s">
+      <c r="A145" s="24" t="s">
         <v>693</v>
       </c>
+      <c r="B145" s="16" t="s">
+        <v>694</v>
+      </c>
       <c r="C145" s="2"/>
-      <c r="D145" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E145" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F145" s="23"/>
-      <c r="G145" s="23"/>
-      <c r="H145" s="23"/>
-      <c r="I145" s="23"/>
-      <c r="J145" s="23"/>
-      <c r="K145" s="23"/>
-      <c r="L145" s="23"/>
-      <c r="M145" s="23"/>
+      <c r="D145" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E145" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="F145" s="25"/>
+      <c r="G145" s="25"/>
+      <c r="H145" s="25"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="25"/>
+      <c r="K145" s="25"/>
+      <c r="L145" s="25"/>
+      <c r="M145" s="25"/>
     </row>
     <row r="146" ht="57" customHeight="1" spans="1:13">
       <c r="A146" s="2"/>
-      <c r="B146" s="15" t="s">
-        <v>166</v>
+      <c r="B146" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
-      <c r="E146" s="24" t="s">
-        <v>695</v>
-      </c>
-      <c r="F146" s="23"/>
-      <c r="G146" s="23"/>
-      <c r="H146" s="23"/>
-      <c r="I146" s="23"/>
-      <c r="J146" s="23"/>
-      <c r="K146" s="23"/>
-      <c r="L146" s="23"/>
-      <c r="M146" s="23"/>
+      <c r="E146" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="F146" s="25"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="25"/>
+      <c r="K146" s="25"/>
+      <c r="L146" s="25"/>
+      <c r="M146" s="25"/>
     </row>
     <row r="147" ht="24.75" customHeight="1" spans="1:13">
       <c r="A147" s="2"/>
-      <c r="B147" s="15" t="s">
-        <v>696</v>
+      <c r="B147" s="16" t="s">
+        <v>697</v>
       </c>
       <c r="C147" s="2"/>
-      <c r="D147" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E147" s="24" t="s">
-        <v>697</v>
-      </c>
-      <c r="F147" s="23"/>
-      <c r="G147" s="23"/>
-      <c r="H147" s="23"/>
-      <c r="I147" s="23"/>
-      <c r="J147" s="23"/>
-      <c r="K147" s="23"/>
-      <c r="L147" s="23"/>
-      <c r="M147" s="23"/>
+      <c r="D147" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E147" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="F147" s="25"/>
+      <c r="G147" s="25"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="25"/>
+      <c r="J147" s="25"/>
+      <c r="K147" s="25"/>
+      <c r="L147" s="25"/>
+      <c r="M147" s="25"/>
     </row>
     <row r="148" ht="62" customHeight="1" spans="1:13">
       <c r="A148" s="2"/>
-      <c r="B148" s="15" t="s">
-        <v>166</v>
+      <c r="B148" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
-      <c r="E148" s="24" t="s">
-        <v>698</v>
-      </c>
-      <c r="F148" s="23"/>
-      <c r="G148" s="23"/>
-      <c r="H148" s="23"/>
-      <c r="I148" s="23"/>
-      <c r="J148" s="23"/>
-      <c r="K148" s="23"/>
-      <c r="L148" s="23"/>
-      <c r="M148" s="23"/>
+      <c r="E148" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="F148" s="25"/>
+      <c r="G148" s="25"/>
+      <c r="H148" s="25"/>
+      <c r="I148" s="25"/>
+      <c r="J148" s="25"/>
+      <c r="K148" s="25"/>
+      <c r="L148" s="25"/>
+      <c r="M148" s="25"/>
     </row>
     <row r="149" ht="24.75" customHeight="1" spans="1:13">
       <c r="A149" s="2"/>
-      <c r="B149" s="15" t="s">
-        <v>699</v>
+      <c r="B149" s="16" t="s">
+        <v>700</v>
       </c>
       <c r="C149" s="2"/>
-      <c r="D149" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E149" s="24" t="s">
-        <v>700</v>
-      </c>
-      <c r="F149" s="23"/>
-      <c r="G149" s="23"/>
-      <c r="H149" s="23"/>
-      <c r="I149" s="23"/>
-      <c r="J149" s="23"/>
-      <c r="K149" s="23"/>
-      <c r="L149" s="23"/>
-      <c r="M149" s="23"/>
+      <c r="D149" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E149" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="25"/>
+      <c r="K149" s="25"/>
+      <c r="L149" s="25"/>
+      <c r="M149" s="25"/>
     </row>
     <row r="150" ht="58" customHeight="1" spans="1:13">
       <c r="A150" s="2"/>
-      <c r="B150" s="15" t="s">
-        <v>166</v>
+      <c r="B150" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
-      <c r="E150" s="24" t="s">
-        <v>701</v>
-      </c>
-      <c r="F150" s="23"/>
-      <c r="G150" s="23"/>
-      <c r="H150" s="23"/>
-      <c r="I150" s="23"/>
-      <c r="J150" s="23"/>
-      <c r="K150" s="23"/>
-      <c r="L150" s="23"/>
-      <c r="M150" s="23"/>
+      <c r="E150" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="F150" s="25"/>
+      <c r="G150" s="25"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
+      <c r="J150" s="25"/>
+      <c r="K150" s="25"/>
+      <c r="L150" s="25"/>
+      <c r="M150" s="25"/>
     </row>
     <row r="151" ht="24.75" customHeight="1" spans="1:13">
       <c r="A151" s="2"/>
-      <c r="B151" s="15" t="s">
-        <v>702</v>
+      <c r="B151" s="16" t="s">
+        <v>703</v>
       </c>
       <c r="C151" s="2"/>
-      <c r="D151" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E151" s="24" t="s">
-        <v>703</v>
-      </c>
-      <c r="F151" s="23"/>
-      <c r="G151" s="23"/>
-      <c r="H151" s="23"/>
-      <c r="I151" s="23"/>
-      <c r="J151" s="23"/>
-      <c r="K151" s="23"/>
-      <c r="L151" s="23"/>
-      <c r="M151" s="23"/>
+      <c r="D151" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E151" s="26" t="s">
+        <v>704</v>
+      </c>
+      <c r="F151" s="25"/>
+      <c r="G151" s="25"/>
+      <c r="H151" s="25"/>
+      <c r="I151" s="25"/>
+      <c r="J151" s="25"/>
+      <c r="K151" s="25"/>
+      <c r="L151" s="25"/>
+      <c r="M151" s="25"/>
     </row>
     <row r="152" ht="63" customHeight="1" spans="1:13">
       <c r="A152" s="2"/>
-      <c r="B152" s="15" t="s">
-        <v>166</v>
+      <c r="B152" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
-      <c r="E152" s="24" t="s">
-        <v>704</v>
-      </c>
-      <c r="F152" s="23"/>
-      <c r="G152" s="23"/>
-      <c r="H152" s="23"/>
-      <c r="I152" s="23"/>
-      <c r="J152" s="23"/>
-      <c r="K152" s="23"/>
-      <c r="L152" s="23"/>
-      <c r="M152" s="23"/>
+      <c r="E152" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="F152" s="25"/>
+      <c r="G152" s="25"/>
+      <c r="H152" s="25"/>
+      <c r="I152" s="25"/>
+      <c r="J152" s="25"/>
+      <c r="K152" s="25"/>
+      <c r="L152" s="25"/>
+      <c r="M152" s="25"/>
     </row>
     <row r="153" ht="24.75" customHeight="1" spans="1:13">
       <c r="A153" s="2"/>
-      <c r="B153" s="15" t="s">
-        <v>705</v>
+      <c r="B153" s="16" t="s">
+        <v>706</v>
       </c>
       <c r="C153" s="2"/>
-      <c r="D153" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E153" s="24" t="s">
-        <v>694</v>
-      </c>
-      <c r="F153" s="23"/>
-      <c r="G153" s="23"/>
-      <c r="H153" s="23"/>
-      <c r="I153" s="23"/>
-      <c r="J153" s="23"/>
-      <c r="K153" s="23"/>
-      <c r="L153" s="23"/>
-      <c r="M153" s="23"/>
+      <c r="D153" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E153" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="F153" s="25"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="25"/>
+      <c r="I153" s="25"/>
+      <c r="J153" s="25"/>
+      <c r="K153" s="25"/>
+      <c r="L153" s="25"/>
+      <c r="M153" s="25"/>
     </row>
     <row r="154" ht="65" customHeight="1" spans="1:13">
       <c r="A154" s="2"/>
-      <c r="B154" s="15" t="s">
-        <v>166</v>
+      <c r="B154" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
-      <c r="E154" s="24" t="s">
-        <v>706</v>
-      </c>
-      <c r="F154" s="23"/>
-      <c r="G154" s="23"/>
-      <c r="H154" s="23"/>
-      <c r="I154" s="23"/>
-      <c r="J154" s="23"/>
-      <c r="K154" s="23"/>
-      <c r="L154" s="23"/>
-      <c r="M154" s="23"/>
+      <c r="E154" s="26" t="s">
+        <v>707</v>
+      </c>
+      <c r="F154" s="25"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="25"/>
+      <c r="K154" s="25"/>
+      <c r="L154" s="25"/>
+      <c r="M154" s="25"/>
     </row>
     <row r="155" ht="24.75" customHeight="1" spans="1:13">
       <c r="A155" s="2"/>
-      <c r="B155" s="15" t="s">
-        <v>707</v>
+      <c r="B155" s="16" t="s">
+        <v>708</v>
       </c>
       <c r="C155" s="2"/>
-      <c r="D155" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E155" s="24" t="s">
-        <v>708</v>
-      </c>
-      <c r="F155" s="23"/>
-      <c r="G155" s="23"/>
-      <c r="H155" s="23"/>
-      <c r="I155" s="23"/>
-      <c r="J155" s="23"/>
-      <c r="K155" s="23"/>
-      <c r="L155" s="23"/>
-      <c r="M155" s="23"/>
+      <c r="D155" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E155" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="F155" s="25"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="25"/>
+      <c r="K155" s="25"/>
+      <c r="L155" s="25"/>
+      <c r="M155" s="25"/>
     </row>
     <row r="156" ht="59" customHeight="1" spans="1:13">
       <c r="A156" s="2"/>
-      <c r="B156" s="15" t="s">
-        <v>166</v>
+      <c r="B156" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
-      <c r="E156" s="24" t="s">
-        <v>709</v>
-      </c>
-      <c r="F156" s="23"/>
-      <c r="G156" s="23"/>
-      <c r="H156" s="23"/>
-      <c r="I156" s="23"/>
-      <c r="J156" s="23"/>
-      <c r="K156" s="23"/>
-      <c r="L156" s="23"/>
-      <c r="M156" s="23"/>
+      <c r="E156" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="F156" s="25"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="25"/>
+      <c r="K156" s="25"/>
+      <c r="L156" s="25"/>
+      <c r="M156" s="25"/>
     </row>
     <row r="157" ht="24.75" customHeight="1" spans="1:13">
       <c r="A157" s="2"/>
-      <c r="B157" s="15" t="s">
-        <v>710</v>
+      <c r="B157" s="16" t="s">
+        <v>711</v>
       </c>
       <c r="C157" s="2"/>
-      <c r="D157" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E157" s="24" t="s">
-        <v>711</v>
-      </c>
-      <c r="F157" s="23"/>
-      <c r="G157" s="23"/>
-      <c r="H157" s="23"/>
-      <c r="I157" s="23"/>
-      <c r="J157" s="23"/>
-      <c r="K157" s="23"/>
-      <c r="L157" s="23"/>
-      <c r="M157" s="23"/>
+      <c r="D157" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="E157" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="F157" s="25"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="25"/>
+      <c r="K157" s="25"/>
+      <c r="L157" s="25"/>
+      <c r="M157" s="25"/>
     </row>
     <row r="158" ht="50" customHeight="1" spans="1:13">
       <c r="A158" s="2"/>
-      <c r="B158" s="15" t="s">
-        <v>166</v>
+      <c r="B158" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
-      <c r="E158" s="24" t="s">
-        <v>712</v>
-      </c>
-      <c r="F158" s="23"/>
-      <c r="G158" s="23"/>
-      <c r="H158" s="23"/>
-      <c r="I158" s="23"/>
-      <c r="J158" s="23"/>
-      <c r="K158" s="23"/>
-      <c r="L158" s="23"/>
-      <c r="M158" s="23"/>
+      <c r="E158" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="F158" s="25"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="25"/>
+      <c r="K158" s="25"/>
+      <c r="L158" s="25"/>
+      <c r="M158" s="25"/>
     </row>
     <row r="159" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A159" s="22" t="s">
-        <v>713</v>
-      </c>
-      <c r="B159" s="15" t="s">
+      <c r="A159" s="24" t="s">
         <v>714</v>
       </c>
-      <c r="C159" s="15" t="s">
+      <c r="B159" s="16" t="s">
         <v>715</v>
       </c>
+      <c r="C159" s="16" t="s">
+        <v>716</v>
+      </c>
       <c r="D159" s="2"/>
-      <c r="E159" s="15" t="s">
-        <v>716</v>
-      </c>
-      <c r="F159" s="15" t="s">
+      <c r="E159" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="G159" s="15" t="s">
+      <c r="F159" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="H159" s="15" t="s">
+      <c r="G159" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="I159" s="15" t="s">
+      <c r="H159" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="J159" s="15" t="s">
+      <c r="I159" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="K159" s="15" t="s">
+      <c r="J159" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="L159" s="15" t="s">
+      <c r="K159" s="16" t="s">
         <v>723</v>
       </c>
-      <c r="M159" s="15" t="s">
+      <c r="L159" s="16" t="s">
         <v>724</v>
+      </c>
+      <c r="M159" s="16" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="160" ht="24.75" customHeight="1" spans="1:13">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D160" s="2"/>
-      <c r="E160" s="15" t="s">
-        <v>726</v>
-      </c>
-      <c r="F160" s="15" t="s">
-        <v>716</v>
-      </c>
-      <c r="G160" s="15" t="s">
+      <c r="E160" s="16" t="s">
+        <v>727</v>
+      </c>
+      <c r="F160" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="H160" s="15" t="s">
+      <c r="G160" s="16" t="s">
         <v>718</v>
       </c>
-      <c r="I160" s="15" t="s">
+      <c r="H160" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="J160" s="15" t="s">
+      <c r="I160" s="16" t="s">
         <v>720</v>
       </c>
-      <c r="K160" s="15" t="s">
+      <c r="J160" s="16" t="s">
         <v>721</v>
       </c>
-      <c r="L160" s="15" t="s">
+      <c r="K160" s="16" t="s">
         <v>722</v>
       </c>
-      <c r="M160" s="15" t="s">
+      <c r="L160" s="16" t="s">
         <v>723</v>
+      </c>
+      <c r="M160" s="16" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="161" ht="24.75" customHeight="1" spans="1:13">
       <c r="A161" s="2"/>
-      <c r="B161" s="15" t="s">
-        <v>727</v>
-      </c>
-      <c r="C161" s="15" t="s">
+      <c r="B161" s="16" t="s">
         <v>728</v>
       </c>
+      <c r="C161" s="16" t="s">
+        <v>729</v>
+      </c>
       <c r="D161" s="2"/>
-      <c r="E161" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="F161" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="G161" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="H161" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="I161" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="J161" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="K161" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="L161" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="M161" s="15" t="s">
-        <v>729</v>
+      <c r="E161" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="F161" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="G161" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="H161" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="I161" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="J161" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="K161" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="L161" s="16" t="s">
+        <v>730</v>
+      </c>
+      <c r="M161" s="16" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="162" ht="24.75" customHeight="1" spans="1:13">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D162" s="2"/>
-      <c r="E162" s="15" t="s">
-        <v>731</v>
-      </c>
-      <c r="F162" s="15" t="s">
+      <c r="E162" s="16" t="s">
         <v>732</v>
       </c>
-      <c r="G162" s="15" t="s">
+      <c r="F162" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="H162" s="15" t="s">
+      <c r="G162" s="16" t="s">
         <v>734</v>
       </c>
-      <c r="I162" s="15" t="s">
-        <v>731</v>
-      </c>
-      <c r="J162" s="15" t="s">
+      <c r="H162" s="16" t="s">
+        <v>735</v>
+      </c>
+      <c r="I162" s="16" t="s">
         <v>732</v>
       </c>
-      <c r="K162" s="15" t="s">
+      <c r="J162" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="L162" s="15" t="s">
+      <c r="K162" s="16" t="s">
         <v>734</v>
       </c>
-      <c r="M162" s="15" t="s">
-        <v>731</v>
+      <c r="L162" s="16" t="s">
+        <v>735</v>
+      </c>
+      <c r="M162" s="16" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="163" ht="24.75" customHeight="1" spans="1:13">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="D163" s="2"/>
+      <c r="E163" s="16" t="s">
         <v>735</v>
       </c>
-      <c r="D163" s="2"/>
-      <c r="E163" s="15" t="s">
+      <c r="F163" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="G163" s="16" t="s">
+        <v>733</v>
+      </c>
+      <c r="H163" s="16" t="s">
         <v>734</v>
       </c>
-      <c r="F163" s="15" t="s">
-        <v>731</v>
-      </c>
-      <c r="G163" s="15" t="s">
+      <c r="I163" s="16" t="s">
+        <v>735</v>
+      </c>
+      <c r="J163" s="16" t="s">
         <v>732</v>
       </c>
-      <c r="H163" s="15" t="s">
+      <c r="K163" s="16" t="s">
         <v>733</v>
       </c>
-      <c r="I163" s="15" t="s">
+      <c r="L163" s="16" t="s">
         <v>734</v>
       </c>
-      <c r="J163" s="15" t="s">
-        <v>731</v>
-      </c>
-      <c r="K163" s="15" t="s">
-        <v>732</v>
-      </c>
-      <c r="L163" s="15" t="s">
-        <v>733</v>
-      </c>
-      <c r="M163" s="15" t="s">
-        <v>734</v>
+      <c r="M163" s="16" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="164" ht="24.75" customHeight="1" spans="1:13">
       <c r="A164" s="2"/>
-      <c r="B164" s="15" t="s">
-        <v>736</v>
-      </c>
-      <c r="C164" s="15" t="s">
-        <v>715</v>
+      <c r="B164" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>716</v>
       </c>
       <c r="D164" s="2"/>
-      <c r="E164" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="F164" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="G164" s="15" t="s">
-        <v>737</v>
-      </c>
-      <c r="H164" s="15" t="s">
-        <v>737</v>
-      </c>
-      <c r="I164" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="J164" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="K164" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="L164" s="15" t="s">
+      <c r="E164" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="F164" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="G164" s="16" t="s">
         <v>738</v>
       </c>
-      <c r="M164" s="15" t="s">
+      <c r="H164" s="16" t="s">
         <v>738</v>
+      </c>
+      <c r="I164" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="J164" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="K164" s="16" t="s">
+        <v>684</v>
+      </c>
+      <c r="L164" s="16" t="s">
+        <v>739</v>
+      </c>
+      <c r="M164" s="16" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="165" ht="24.75" customHeight="1" spans="1:13">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D165" s="2"/>
-      <c r="E165" s="15" t="s">
-        <v>737</v>
-      </c>
-      <c r="F165" s="15" t="s">
+      <c r="E165" s="16" t="s">
+        <v>738</v>
+      </c>
+      <c r="F165" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="G165" s="16" t="s">
+        <v>740</v>
+      </c>
+      <c r="H165" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="I165" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="G165" s="15" t="s">
+      <c r="J165" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="H165" s="15" t="s">
-        <v>740</v>
-      </c>
-      <c r="I165" s="15" t="s">
-        <v>738</v>
-      </c>
-      <c r="J165" s="15" t="s">
-        <v>738</v>
-      </c>
-      <c r="K165" s="15" t="s">
-        <v>740</v>
-      </c>
-      <c r="L165" s="15" t="s">
+      <c r="K165" s="16" t="s">
         <v>741</v>
       </c>
-      <c r="M165" s="15" t="s">
-        <v>683</v>
+      <c r="L165" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="M165" s="16" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="166" ht="24.75" customHeight="1" spans="1:13">
       <c r="A166" s="2"/>
-      <c r="B166" s="15" t="s">
-        <v>742</v>
+      <c r="B166" s="16" t="s">
+        <v>743</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D166" s="2"/>
-      <c r="E166" s="15" t="s">
-        <v>743</v>
-      </c>
-      <c r="F166" s="15" t="s">
+      <c r="E166" s="16" t="s">
         <v>744</v>
       </c>
-      <c r="G166" s="15" t="s">
+      <c r="F166" s="16" t="s">
         <v>745</v>
       </c>
-      <c r="H166" s="15" t="s">
+      <c r="G166" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="I166" s="15" t="s">
+      <c r="H166" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="J166" s="15" t="s">
+      <c r="I166" s="16" t="s">
         <v>748</v>
       </c>
-      <c r="K166" s="15" t="s">
+      <c r="J166" s="16" t="s">
         <v>749</v>
       </c>
-      <c r="L166" s="15" t="s">
+      <c r="K166" s="16" t="s">
         <v>750</v>
       </c>
-      <c r="M166" s="15" t="s">
+      <c r="L166" s="16" t="s">
         <v>751</v>
+      </c>
+      <c r="M166" s="16" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="167" ht="24.75" customHeight="1" spans="1:13">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D167" s="2"/>
-      <c r="E167" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="F167" s="15" t="s">
-        <v>743</v>
-      </c>
-      <c r="G167" s="15" t="s">
+      <c r="E167" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="F167" s="16" t="s">
         <v>744</v>
       </c>
-      <c r="H167" s="15" t="s">
+      <c r="G167" s="16" t="s">
         <v>745</v>
       </c>
-      <c r="I167" s="15" t="s">
+      <c r="H167" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="J167" s="15" t="s">
+      <c r="I167" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="K167" s="15" t="s">
+      <c r="J167" s="16" t="s">
         <v>748</v>
       </c>
-      <c r="L167" s="15" t="s">
+      <c r="K167" s="16" t="s">
         <v>749</v>
       </c>
-      <c r="M167" s="15" t="s">
+      <c r="L167" s="16" t="s">
         <v>750</v>
+      </c>
+      <c r="M167" s="16" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="168" ht="106" customHeight="1" spans="1:13">
       <c r="A168" s="2"/>
-      <c r="B168" s="15" t="s">
-        <v>166</v>
+      <c r="B168" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
-      <c r="E168" s="24" t="s">
-        <v>752</v>
-      </c>
-      <c r="F168" s="23"/>
-      <c r="G168" s="23"/>
-      <c r="H168" s="23"/>
-      <c r="I168" s="23"/>
-      <c r="J168" s="23"/>
-      <c r="K168" s="23"/>
-      <c r="L168" s="23"/>
-      <c r="M168" s="23"/>
+      <c r="E168" s="26" t="s">
+        <v>753</v>
+      </c>
+      <c r="F168" s="25"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="25"/>
+      <c r="I168" s="25"/>
+      <c r="J168" s="25"/>
+      <c r="K168" s="25"/>
+      <c r="L168" s="25"/>
+      <c r="M168" s="25"/>
     </row>
     <row r="169" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A169" s="22" t="s">
-        <v>753</v>
-      </c>
-      <c r="B169" s="15" t="s">
-        <v>728</v>
+      <c r="A169" s="24" t="s">
+        <v>754</v>
+      </c>
+      <c r="B169" s="16" t="s">
+        <v>729</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
-      <c r="E169" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="F169" s="15" t="s">
+      <c r="E169" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="G169" s="15" t="s">
-        <v>754</v>
-      </c>
-      <c r="H169" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="I169" s="15" t="s">
+      <c r="F169" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="G169" s="16" t="s">
+        <v>755</v>
+      </c>
+      <c r="H169" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="J169" s="15" t="s">
+      <c r="I169" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="K169" s="15" t="s">
+      <c r="J169" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="L169" s="15" t="s">
+      <c r="K169" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="M169" s="15" t="s">
+      <c r="L169" s="16" t="s">
         <v>604</v>
+      </c>
+      <c r="M169" s="16" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="170" ht="42" customHeight="1" spans="1:13">
       <c r="A170" s="2"/>
-      <c r="B170" s="15" t="s">
-        <v>166</v>
+      <c r="B170" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
-      <c r="E170" s="21" t="s">
-        <v>755</v>
-      </c>
-      <c r="F170" s="23"/>
-      <c r="G170" s="23"/>
-      <c r="H170" s="23"/>
-      <c r="I170" s="23"/>
-      <c r="J170" s="23"/>
-      <c r="K170" s="23"/>
-      <c r="L170" s="23"/>
-      <c r="M170" s="23"/>
+      <c r="E170" s="23" t="s">
+        <v>756</v>
+      </c>
+      <c r="F170" s="25"/>
+      <c r="G170" s="25"/>
+      <c r="H170" s="25"/>
+      <c r="I170" s="25"/>
+      <c r="J170" s="25"/>
+      <c r="K170" s="25"/>
+      <c r="L170" s="25"/>
+      <c r="M170" s="25"/>
     </row>
     <row r="171" ht="24.75" customHeight="1" spans="1:13">
-      <c r="A171" s="22" t="s">
-        <v>756</v>
-      </c>
-      <c r="B171" s="15" t="s">
+      <c r="A171" s="24" t="s">
         <v>757</v>
+      </c>
+      <c r="B171" s="16" t="s">
+        <v>758</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
-      <c r="E171" s="15" t="s">
-        <v>758</v>
-      </c>
-      <c r="F171" s="15" t="s">
-        <v>758</v>
-      </c>
-      <c r="G171" s="15" t="s">
-        <v>758</v>
-      </c>
-      <c r="H171" s="15" t="s">
-        <v>758</v>
-      </c>
-      <c r="I171" s="15" t="s">
-        <v>758</v>
-      </c>
-      <c r="J171" s="15" t="s">
-        <v>758</v>
-      </c>
-      <c r="K171" s="15" t="s">
-        <v>758</v>
-      </c>
-      <c r="L171" s="15" t="s">
-        <v>758</v>
-      </c>
-      <c r="M171" s="15" t="s">
-        <v>758</v>
+      <c r="E171" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="F171" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="G171" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="H171" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="I171" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="J171" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="K171" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="L171" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="M171" s="16" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="172" ht="39" customHeight="1" spans="1:13">
       <c r="A172" s="2"/>
-      <c r="B172" s="15" t="s">
-        <v>166</v>
+      <c r="B172" s="16" t="s">
+        <v>167</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
-      <c r="E172" s="24" t="s">
-        <v>759</v>
-      </c>
-      <c r="F172" s="23"/>
-      <c r="G172" s="23"/>
-      <c r="H172" s="23"/>
-      <c r="I172" s="23"/>
-      <c r="J172" s="23"/>
-      <c r="K172" s="23"/>
-      <c r="L172" s="23"/>
-      <c r="M172" s="23"/>
+      <c r="E172" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="F172" s="25"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="25"/>
+      <c r="I172" s="25"/>
+      <c r="J172" s="25"/>
+      <c r="K172" s="25"/>
+      <c r="L172" s="25"/>
+      <c r="M172" s="25"/>
     </row>
     <row r="173" ht="24" customHeight="1" spans="1:13">
-      <c r="A173" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="B173" s="10"/>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
-      <c r="H173" s="10"/>
-      <c r="I173" s="10"/>
-      <c r="J173" s="34"/>
-      <c r="K173" s="34"/>
-      <c r="L173" s="34"/>
-      <c r="M173" s="34"/>
+      <c r="A173" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="36"/>
+      <c r="K173" s="36"/>
+      <c r="L173" s="36"/>
+      <c r="M173" s="36"/>
     </row>
     <row r="174" ht="32" customHeight="1" spans="1:13">
-      <c r="A174" s="35" t="s">
-        <v>761</v>
+      <c r="A174" s="37" t="s">
+        <v>762</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="7" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="F174" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G174" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="I174" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="J174" s="7" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="K174" s="7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="L174" s="7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="M174" s="7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="175" ht="33" customHeight="1" spans="1:13">
-      <c r="A175" s="35" t="s">
-        <v>766</v>
+      <c r="A175" s="38" t="s">
+        <v>767</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -23300,180 +23288,180 @@
       <c r="M175" s="2"/>
     </row>
     <row r="176" ht="49.5" customHeight="1" spans="1:13">
-      <c r="A176" s="35" t="s">
-        <v>767</v>
+      <c r="A176" s="38" t="s">
+        <v>768</v>
       </c>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F176" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="I176" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="J176" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="K176" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="G176" s="7" t="s">
+      <c r="L176" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="H176" s="7" t="s">
+      <c r="M176" s="7" t="s">
         <v>769</v>
-      </c>
-      <c r="I176" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="J176" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="K176" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="L176" s="7" t="s">
-        <v>768</v>
-      </c>
-      <c r="M176" s="7" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="177" ht="69" customHeight="1" spans="1:13">
       <c r="A177" s="6" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F177" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="G177" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="H177" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="J177" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="K177" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="G177" s="7" t="s">
-        <v>775</v>
-      </c>
-      <c r="H177" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="I177" s="7" t="s">
-        <v>777</v>
-      </c>
-      <c r="J177" s="7" t="s">
-        <v>778</v>
-      </c>
-      <c r="K177" s="7" t="s">
-        <v>773</v>
-      </c>
       <c r="L177" s="7" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="M177" s="7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="178" ht="49.5" customHeight="1" spans="1:13">
       <c r="A178" s="2"/>
       <c r="B178" s="6" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F178" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="H178" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="I178" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="J178" s="7" t="s">
         <v>782</v>
       </c>
-      <c r="G178" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="H178" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="I178" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="J178" s="7" t="s">
-        <v>781</v>
-      </c>
       <c r="K178" s="7" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="L178" s="7" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="M178" s="7" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="179" ht="94" customHeight="1" spans="1:13">
       <c r="A179" s="2"/>
       <c r="B179" s="6" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="7" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="F179" s="7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G179" s="7" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="I179" s="7" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="J179" s="7" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="K179" s="7" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="L179" s="7" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="M179" s="7" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="180" ht="67.5" customHeight="1" spans="1:13">
       <c r="A180" s="2"/>
       <c r="B180" s="6" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F180" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="I180" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="J180" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="K180" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="L180" s="7" t="s">
         <v>797</v>
       </c>
-      <c r="G180" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="H180" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="I180" s="7" t="s">
-        <v>799</v>
-      </c>
-      <c r="J180" s="7" t="s">
-        <v>799</v>
-      </c>
-      <c r="K180" s="7" t="s">
-        <v>800</v>
-      </c>
-      <c r="L180" s="7" t="s">
-        <v>796</v>
-      </c>
       <c r="M180" s="7" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
   </sheetData>
